--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>백업 및 재해 복구</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정이 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1151,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>백업 및 재해 복구</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정이 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정에 대해 구현Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1178,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1211,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정에 대해 구현Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1228,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1261,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Azure AD 조건부 액세스 정책 적용</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1311,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Azure AD 조건부 액세스 정책 적용</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1328,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1361,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>역할 및 보안 요구 사항에 따라 landing zone 내에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 적용합니다</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1378,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>역할 및 보안 요구 사항에 따라 landing zone 내에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 적용합니다</t>
+          <t>Azure AD PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1461,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure AD PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
+          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1478,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1511,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
+          <t>사용 권한을 할당하는 데는 그룹만 사용합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>사용 권한을 할당하는 데는 그룹만 사용합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1578,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1628,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>AADDS(Azure Active Directory Domains Services)를 사용 중인 경우 이 서비스는 하나의 구독에만 프로젝션할 수 있으므로 주 지역 내에 AADDS를 배포합니다</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>AADDS(Azure Active Directory Domains Services)를 사용 중인 경우 이 서비스는 하나의 구독에만 프로젝션할 수 있으므로 주 지역 내에 AADDS를 배포합니다</t>
+          <t>AADDS를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>AADDS를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
+          <t>Windows 서버의 AD가 사용 중인 경우 필요한 모든 리소스가 올바른 도메인 컨트롤러에 액세스할 수 있나요?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Windows 서버의 AD가 사용 중인 경우 필요한 모든 리소스가 올바른 도메인 컨트롤러에 액세스할 수 있나요?</t>
+          <t>Azure AD 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1828,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1861,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>Azure AD 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1878,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1901,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
+          <t>이상적으로는 3-4개 이하의 수준으로 합리적으로 평평한 관리 그룹 계층 구조를 적용합니다</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1928,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1961,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>이상적으로는 3-4개 이하의 수준으로 합리적으로 평평한 관리 그룹 계층 구조를 적용합니다</t>
+          <t>Azure Policy를 통해 리소스 태그 적용 또는 추가Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +1978,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2011,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 리소스 태그 적용 또는 추가Enforce or appended resource tags through Azure Policy</t>
+          <t>사용자가 Azure를 즉시 실험할 수 있도록 샌드박스 관리 그룹 적용</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2028,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>사용자가 Azure를 즉시 실험할 수 있도록 샌드박스 관리 그룹 적용</t>
+          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 일반적인 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2090,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2111,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 일반적인 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
+          <t>플랫폼 관리 그룹에서 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 프라이빗 DNS(Domain Name System), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스트합니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2140,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2161,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 관리 그룹에서 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 프라이빗 DNS(Domain Name System), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스트합니다.</t>
+          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2178,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2206,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 합니다.</t>
+          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용합니다</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2223,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2251,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용합니다</t>
+          <t>루트 수준 관리 그룹 아래에 관리 그룹을 적용하여 보안, 규정 준수, 연결 및 기능 요구 사항에 따라 워크로드 유형을 나타냅니다.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2268,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2276,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2297,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>루트 수준 관리 그룹 아래에 관리 그룹을 적용하여 보안, 규정 준수, 연결 및 기능 요구 사항에 따라 워크로드 유형을 나타냅니다.</t>
+          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토, 예산 검토, 정책 준수에 액세스하고, 필요한 경우 수정할 수 있도록 프로세스를 적용합니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2322,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2343,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토, 예산 검토, 정책 준수에 액세스하고, 필요한 경우 수정할 수 있도록 프로세스를 적용합니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 리소스 제한 사항을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2360,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2368,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2389,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 리소스 제한 사항을 알고 있는지 확인합니다.</t>
+          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 보장합니다. Azure Policy를 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2406,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2439,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 보장합니다. Azure Policy를 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
+          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준 모니터링Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2456,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2489,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준 모니터링Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2506,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2539,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
+          <t>비용 관리를 위한 프로세스 적용</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2556,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2589,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>비용 관리를 위한 프로세스 적용</t>
+          <t>Windows Server의 AD인 경우 플랫폼 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2606,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2639,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 플랫폼 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
+          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2656,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2679,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
+          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 오탐지 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2706,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2735,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 오탐지 탐지를 확인합니다.</t>
+          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2752,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2760,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2776,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2798,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2831,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 플랫폼을 중앙에서 관리합니다.</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2846,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2873,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Storage로 로그를 내보냅니다. 변경이 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지우거나 수정할 수 없도록 합니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2888,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2923,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Storage로 로그를 내보냅니다. 변경이 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지우거나 수정할 수 없도록 합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2952,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +2973,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +2990,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3023,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3040,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3073,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3090,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3123,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3140,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3173,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 마련합니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3190,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3219,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 마련합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함Include service and resource health events as part of the overall platform monitoring solution. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3236,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3244,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3265,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함Include service and resource health events as part of the overall platform monitoring solution. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>경고 또는 문제를 처리할 수 있도록 경고 및 작업 그룹을 Azure Service Health 플랫폼의 일부로 포함합니다</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3282,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3310,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 처리할 수 있도록 경고 및 작업 그룹을 Azure Service Health 플랫폼의 일부로 포함합니다</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3327,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3335,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3356,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3373,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3401,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3418,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3446,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3463,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3491,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
+          <t>운영 경고 생성에 Azure Monitor 경고를 사용합니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3508,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3536,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>운영 경고 생성에 Azure Monitor 경고를 사용합니다.</t>
+          <t>Azure 간 Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 여러 지역에 걸쳐 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3553,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3581,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure 간 Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 여러 지역에 걸쳐 워크로드를 복제할 수 있습니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3598,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3643,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3671,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3688,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3716,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3733,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3741,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3752,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3779,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3787,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3943,7 +3908,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 게이트웨이는 IP 접두사가 /26보다 크거나 같은 서브넷에 배포해야 합니다</t>
+          <t>Azure Load Balancer에 표준 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3960,19 +3925,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3993,14 +3954,10 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
-        </is>
-      </c>
+          <t>응용 프로그램 게이트웨이는 IP 접두사가 /26보다 크거나 같은 서브넷에 배포해야 합니다</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4014,7 +3971,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
@@ -4026,7 +3983,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,10 +4004,14 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="n"/>
+          <t>랜딩 존 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="inlineStr">
+        <is>
+          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4069,14 +4030,14 @@
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4058,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4126,7 +4087,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,7 +4108,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4164,7 +4125,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4137,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4158,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
+          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,7 +4175,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
@@ -4226,7 +4187,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4208,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Azure AD 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
+          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4264,19 +4225,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4258,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스 권한을 제공하는 것이 좋습니다.</t>
+          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Azure AD 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4319,14 +4280,14 @@
       </c>
       <c r="I74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4347,13 +4308,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>'방지' 모드에서 Front Door에 대한 WAF 프로필을 배포합니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스 권한을 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,15 +4325,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4393,7 +4358,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
+          <t>'방지' 모드에서 Front Door에 대한 WAF 프로필을 배포합니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4410,7 +4375,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4418,7 +4383,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4439,7 +4404,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4456,7 +4421,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4464,7 +4429,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4485,13 +4450,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,7 +4467,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4510,7 +4475,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4531,13 +4496,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4548,7 +4513,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4556,7 +4521,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4577,13 +4542,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4594,7 +4559,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4602,7 +4567,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4623,13 +4588,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Azure Front Door에서 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4640,7 +4605,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4648,7 +4613,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,18 +4629,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 이 암호화 흐름을 보여 줍니다.</t>
+          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4686,7 +4651,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4694,7 +4659,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4715,13 +4680,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 ExpressRoute 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 이 암호화 흐름을 보여 줍니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4732,19 +4697,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4760,18 +4721,18 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 ExpressRoute 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4782,19 +4743,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4776,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이, Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스가 중앙 허브 가상 네트워크에 있는지 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,15 +4793,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,13 +4826,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이, Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스가 중앙 허브 가상 네트워크에 있는지 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4878,7 +4843,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4886,7 +4851,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,7 +4889,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4932,7 +4897,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,7 +4935,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4978,7 +4943,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4999,13 +4964,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5016,19 +4981,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5049,7 +5010,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5027,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5099,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수를 고려합니다</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5116,15 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5145,13 +5110,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수를 고려합니다</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5162,7 +5127,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5170,7 +5135,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5186,18 +5151,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5208,19 +5173,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5241,14 +5202,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5262,7 +5219,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5231,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,10 +5252,14 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5324,7 +5285,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,13 +5306,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,15 +5323,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5391,7 +5356,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5408,7 +5373,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5416,7 +5381,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5437,13 +5402,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5454,19 +5419,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5487,7 +5448,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5504,7 +5465,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5516,7 +5477,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5537,7 +5498,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5554,7 +5515,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5566,7 +5527,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5587,7 +5548,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5604,19 +5565,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5637,13 +5598,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5654,19 +5615,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5687,13 +5648,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5704,7 +5665,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5716,7 +5677,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5737,7 +5698,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5754,7 +5715,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5766,7 +5727,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5787,7 +5748,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
+          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5804,7 +5765,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5816,7 +5777,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5837,7 +5798,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5854,7 +5815,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5866,7 +5827,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,7 +5848,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5904,15 +5865,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5933,13 +5898,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5950,7 +5915,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5958,7 +5923,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5974,12 +5939,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5996,19 +5961,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6029,13 +5990,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6058,7 +6019,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6079,13 +6040,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6069,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6129,7 +6090,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6146,19 +6107,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6179,13 +6140,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6196,7 +6157,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6208,7 +6169,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6229,7 +6190,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6246,19 +6207,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6279,13 +6240,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6296,14 +6257,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6324,13 +6290,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6341,19 +6307,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6369,18 +6330,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6391,14 +6352,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6419,7 +6385,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6436,7 +6402,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6444,7 +6410,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6465,13 +6431,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6482,19 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6515,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6532,7 +6493,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6544,7 +6505,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6565,13 +6526,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6594,7 +6555,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6615,13 +6576,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6632,19 +6593,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6665,13 +6626,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6682,7 +6643,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6694,7 +6655,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6715,13 +6676,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6737,14 +6698,14 @@
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6765,7 +6726,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6782,19 +6743,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6776,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6793,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6826,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6843,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6871,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6929,7 +6895,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6950,7 +6916,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,14 +6933,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,7 +6961,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7012,14 +6978,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7035,12 +7001,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7057,19 +7023,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7090,13 +7051,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7107,19 +7068,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7140,7 +7101,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7162,14 +7123,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7190,7 +7151,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7212,14 +7173,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,7 +7201,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 서비스 엔드포인트를 사용하는 경우 NVA에서 송신 FQDN을 필터링하여 데이터 반출을 방지합니다.</t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7269,7 +7230,7 @@
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7285,18 +7246,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>가상 네트워크 서비스 엔드포인트를 사용하는 경우 NVA에서 송신 FQDN을 필터링하여 데이터 반출을 방지합니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7268,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,7 +7301,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7352,14 +7318,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7380,13 +7346,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7397,14 +7363,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7425,7 +7391,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7442,19 +7408,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7475,7 +7436,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7492,19 +7453,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7525,7 +7486,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7540,7 +7501,11 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7550,7 +7515,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7571,7 +7536,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7586,11 +7551,7 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H142" s="15" t="n"/>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7600,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7621,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7643,14 +7604,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7666,12 +7627,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7688,19 +7649,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7682,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7738,14 +7699,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7766,13 +7732,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7790,7 +7756,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7811,13 +7777,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7829,18 +7795,13 @@
       <c r="H147" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7822,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7839,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7889,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7917,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7934,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,7 +7962,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8013,14 +7979,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8041,7 +8007,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8058,14 +8024,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8086,13 +8052,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8069,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,17 +8087,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8114,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8176,13 +8142,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
+          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8193,14 +8159,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8211,7 +8177,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8221,13 +8187,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
+          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8238,14 +8204,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8232,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,13 +8277,13 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8328,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8322,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
+          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8367,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
+          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8463,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,7 +8457,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8508,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,13 +8502,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8553,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,7 +8547,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8598,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8671,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8716,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8733,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8756,18 +8722,18 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 활용</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8778,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,13 +8772,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t>Azure Policy 활용</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8823,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8817,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8868,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,7 +8862,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8920,7 +8886,7 @@
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8907,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8931,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9003,14 +8969,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9031,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9048,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9076,14 +9042,10 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="inlineStr">
-        <is>
-          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9097,14 +9059,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,10 +9087,14 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="inlineStr">
+        <is>
+          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9142,14 +9108,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,7 +9136,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9187,14 +9153,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9215,7 +9181,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9232,14 +9198,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9260,14 +9226,10 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9281,14 +9243,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9304,18 +9266,22 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9292,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,13 +9320,13 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9371,14 +9337,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9365,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9416,14 +9382,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9410,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9434,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9455,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9479,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9500,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9558,7 +9524,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9569,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9607,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9686,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9697,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9759,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9804,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9828,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9844,12 +9810,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9860,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9905,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9950,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10008,7 +9974,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +9995,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10164,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10181,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10209,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10233,7 +10199,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10244,23 +10210,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10271,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10294,12 +10260,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
+          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10316,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10344,7 +10310,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10361,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10377,15 +10343,45 @@
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="n"/>
-      <c r="B204" s="21" t="n"/>
-      <c r="C204" s="21" t="n"/>
+      <c r="A204" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+        </is>
+      </c>
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C204" s="21" t="inlineStr">
+        <is>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+        </is>
+      </c>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="n"/>
+      <c r="E204" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G204" s="21" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="n"/>
+      <c r="L204" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
@@ -11808,20 +11804,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -11833,123 +11927,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -8222,17 +8222,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t xml:space="preserve">복구 </t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
+          <t>VM이 지원되는 지역의 VM에 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8249,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8267,23 +8267,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t xml:space="preserve">복구 </t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8294,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8312,23 +8312,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t xml:space="preserve">복구 </t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8357,23 +8357,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t xml:space="preserve">복구 </t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
+          <t>Azure Virtual Machine Scale sets를 활용하여 부하에 따라 스케일 업 및 스케일 다운합니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8384,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
+          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8429,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8457,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8519,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8564,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,13 +8592,13 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8609,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8654,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8699,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8744,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8767,18 +8767,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 활용</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8789,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8812,12 +8812,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8857,18 +8857,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8879,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8902,12 +8902,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8924,14 +8924,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8952,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다</t>
+          <t>Azure Policy 활용</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8976,7 +8976,7 @@
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9066,7 +9066,7 @@
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,14 +9087,10 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="inlineStr">
-        <is>
-          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9108,14 +9104,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9136,7 +9132,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9160,7 +9156,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9181,13 +9177,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9198,14 +9194,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9226,7 +9222,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9243,14 +9239,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9271,12 +9267,12 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D180" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
         </is>
       </c>
       <c r="E180" s="21" t="inlineStr">
@@ -9292,14 +9288,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9315,18 +9311,18 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9337,14 +9333,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9360,12 +9356,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9382,14 +9378,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9405,12 +9401,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9427,14 +9423,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9450,15 +9446,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9472,14 +9472,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9500,13 +9500,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9517,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9562,14 +9562,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9614,7 +9614,7 @@
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9652,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
+          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9704,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9742,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9855,12 +9855,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9900,12 +9900,12 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
+          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
+          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9967,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9990,12 +9990,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10012,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10192,14 +10192,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10255,23 +10255,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10282,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10300,7 +10300,7 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
@@ -10310,13 +10310,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10327,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10345,7 +10345,7 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
@@ -10355,13 +10355,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10372,14 +10372,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10388,60 +10388,180 @@
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="n"/>
-      <c r="B205" s="21" t="n"/>
-      <c r="C205" s="21" t="n"/>
+      <c r="A205" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B205" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C205" s="21" t="inlineStr">
+        <is>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+        </is>
+      </c>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="n"/>
+      <c r="E205" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G205" s="21" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="n"/>
+      <c r="L205" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="n"/>
-      <c r="B206" s="21" t="n"/>
-      <c r="C206" s="21" t="n"/>
+      <c r="A206" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+        </is>
+      </c>
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>거버넌스</t>
+        </is>
+      </c>
+      <c r="C206" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
+        </is>
+      </c>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="n"/>
+      <c r="E206" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G206" s="21" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="n"/>
+      <c r="L206" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
       <c r="P206" s="25" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="n"/>
-      <c r="B207" s="21" t="n"/>
-      <c r="C207" s="21" t="n"/>
+      <c r="A207" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+        </is>
+      </c>
+      <c r="B207" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C207" s="21" t="inlineStr">
+        <is>
+          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
+        </is>
+      </c>
       <c r="D207" s="21" t="n"/>
-      <c r="E207" s="21" t="n"/>
+      <c r="E207" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G207" s="21" t="n"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
-      <c r="L207" s="25" t="n"/>
+      <c r="L207" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M207" s="25" t="n"/>
       <c r="N207" s="25" t="n"/>
       <c r="O207" s="25" t="n"/>
       <c r="P207" s="25" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="n"/>
-      <c r="B208" s="21" t="n"/>
-      <c r="C208" s="21" t="n"/>
+      <c r="A208" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+        </is>
+      </c>
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C208" s="21" t="inlineStr">
+        <is>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+        </is>
+      </c>
       <c r="D208" s="21" t="n"/>
-      <c r="E208" s="21" t="n"/>
+      <c r="E208" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G208" s="21" t="n"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
-      <c r="L208" s="25" t="n"/>
+      <c r="L208" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M208" s="25" t="n"/>
       <c r="N208" s="25" t="n"/>
       <c r="O208" s="25" t="n"/>
@@ -11928,7 +12048,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11943,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -12151,6 +12271,13 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
+          <t>복구</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>백업 및 재해 복구</t>
         </is>
       </c>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 타사 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수를 고려합니다</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한(500), ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)를 고려합니다</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5173,7 +5173,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5181,7 +5181,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5197,18 +5197,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5219,19 +5219,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5252,14 +5248,10 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5273,7 +5265,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5285,7 +5277,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5306,10 +5298,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5335,7 +5331,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5356,13 +5352,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5373,15 +5369,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5419,7 +5419,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5427,7 +5427,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5448,13 +5448,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5465,19 +5465,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5498,7 +5494,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5515,7 +5511,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5527,7 +5523,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5548,7 +5544,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5565,7 +5561,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5577,7 +5573,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5598,7 +5594,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5615,19 +5611,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5648,13 +5644,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5665,19 +5661,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5698,13 +5694,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5715,7 +5711,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5727,7 +5723,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5748,7 +5744,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5765,7 +5761,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5777,7 +5773,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5798,7 +5794,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
+          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5815,7 +5811,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5827,7 +5823,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5848,7 +5844,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5865,7 +5861,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
@@ -5877,7 +5873,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5898,7 +5894,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5915,15 +5911,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5944,13 +5944,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5961,7 +5961,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5969,7 +5969,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6007,19 +6007,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6040,13 +6036,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6069,7 +6065,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6090,13 +6086,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6119,7 +6115,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6140,7 +6136,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6157,19 +6153,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6190,13 +6186,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6207,7 +6203,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
@@ -6219,7 +6215,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6240,7 +6236,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6257,19 +6253,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6290,13 +6286,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6307,14 +6303,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6335,13 +6336,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6352,19 +6353,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6380,18 +6376,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6402,15 +6398,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6448,14 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6476,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6493,19 +6493,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6526,13 +6522,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6543,7 +6539,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
@@ -6555,7 +6551,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6576,13 +6572,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6605,7 +6601,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6626,13 +6622,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6643,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6676,13 +6672,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6693,7 +6689,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6705,7 +6701,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6726,13 +6722,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6748,14 +6744,14 @@
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6793,19 +6789,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6826,7 +6822,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6843,14 +6839,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6871,7 +6872,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6888,14 +6889,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6916,7 +6917,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6940,7 +6941,7 @@
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6961,7 +6962,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6978,14 +6979,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7006,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7023,14 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7046,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7068,19 +7069,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7101,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7118,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7151,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7173,14 +7169,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7201,7 +7197,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7223,14 +7219,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7251,7 +7247,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 서비스 엔드포인트를 사용하는 경우 NVA에서 송신 FQDN을 필터링하여 데이터 반출을 방지합니다.</t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7280,7 +7276,7 @@
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7296,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>가상 네트워크 서비스 엔드포인트를 사용하는 경우 NVA에서 송신 FQDN을 필터링하여 데이터 반출을 방지합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7318,14 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7363,14 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7391,13 +7392,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7408,14 +7409,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7453,19 +7454,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7486,7 +7482,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7503,19 +7499,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7536,7 +7532,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7551,7 +7547,11 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7561,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7597,11 +7597,7 @@
         </is>
       </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H143" s="15" t="n"/>
       <c r="I143" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7611,7 +7607,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7632,7 +7628,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7654,14 +7650,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7677,12 +7673,12 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7699,19 +7695,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7732,7 +7728,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7749,14 +7745,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7777,13 +7778,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7801,7 +7802,7 @@
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7822,13 +7823,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7840,18 +7841,13 @@
       <c r="H148" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7872,7 +7868,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7889,14 +7885,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7934,14 +7935,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7979,14 +7980,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8007,7 +8008,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8024,14 +8025,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8052,7 +8053,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8069,14 +8070,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8097,13 +8098,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8114,14 +8115,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8132,17 +8133,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8159,14 +8160,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8187,13 +8188,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
+          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8204,14 +8205,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8222,23 +8223,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">복구 </t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 가용성 영역을 활용합니다.</t>
+          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8249,14 +8250,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>VM이 지원되는 지역의 VM에 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8294,14 +8295,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8322,13 +8323,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8340,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8362,12 +8363,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale sets를 활용하여 부하에 따라 스케일 업 및 스케일 다운합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8384,14 +8385,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8402,23 +8403,23 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t xml:space="preserve">복구 </t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
+          <t>Azure Virtual Machine Scale sets를 활용하여 부하에 따라 스케일 업 및 스케일 다운합니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8429,14 +8430,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8458,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8475,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,13 +8503,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8519,14 +8520,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,7 +8548,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
+          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8564,14 +8565,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
+          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8609,14 +8610,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,7 +8638,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8654,14 +8655,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,7 +8683,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8699,14 +8700,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,13 +8728,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8744,14 +8745,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8789,14 +8790,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8817,7 +8818,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8835,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8862,13 +8863,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8880,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8907,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8924,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8947,18 +8948,18 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 활용</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8969,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8998,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t>Azure Policy 활용</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9059,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9111,7 +9112,7 @@
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9132,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9156,7 +9157,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9177,13 +9178,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9194,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9222,13 +9223,13 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9239,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9267,14 +9268,10 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9288,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9316,10 +9313,14 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9333,14 +9334,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9361,7 +9362,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9378,14 +9379,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9423,14 +9424,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9451,14 +9452,10 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9472,14 +9469,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9495,18 +9492,22 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
-        </is>
-      </c>
-      <c r="D185" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D185" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9518,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,13 +9546,13 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9562,14 +9563,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9591,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9607,14 +9608,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9636,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,7 +9660,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9705,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9726,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9749,7 +9750,7 @@
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9771,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9795,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9816,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9833,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9860,7 +9861,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9878,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9905,7 +9906,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9923,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9950,7 +9951,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9968,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9995,7 +9996,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10019,7 +10020,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10035,12 +10036,12 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10058,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10086,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10103,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10131,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10148,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10176,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10199,7 +10200,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10221,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10238,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10265,7 +10266,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10282,14 +10283,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10327,14 +10328,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10355,7 +10356,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10372,14 +10373,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10400,7 +10401,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10424,7 +10425,7 @@
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10435,23 +10436,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10462,14 +10463,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10485,12 +10486,12 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
+          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10507,14 +10508,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10535,7 +10536,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10552,14 +10553,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10568,15 +10569,45 @@
       <c r="P208" s="25" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="n"/>
-      <c r="B209" s="21" t="n"/>
-      <c r="C209" s="21" t="n"/>
+      <c r="A209" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보안, 거버넌스 및 규정 준수 </t>
+        </is>
+      </c>
+      <c r="B209" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C209" s="21" t="inlineStr">
+        <is>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+        </is>
+      </c>
       <c r="D209" s="21" t="n"/>
-      <c r="E209" s="21" t="n"/>
+      <c r="E209" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G209" s="21" t="n"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
-      <c r="L209" s="25" t="n"/>
+      <c r="L209" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M209" s="25" t="n"/>
       <c r="N209" s="25" t="n"/>
       <c r="O209" s="25" t="n"/>
@@ -12048,7 +12079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F210" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>얼마나 많은 Azure AD 테넌트를 관리하나요?</t>
+          <t>다중 테넌트에 대한 명확한 규정 또는 비즈니스 요구 사항이 없는 한 Azure 리소스를 관리하기 위해 하나의 Entra 테넌트를 사용합니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/multitenant/considerations/tenancy-models</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1316,7 +1316,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1362,7 +1362,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1408,7 +1408,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1500,7 +1500,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1546,7 +1546,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1638,7 +1638,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -2235,7 +2235,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2327,12 +2327,12 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
@@ -2473,10 +2473,10 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
@@ -3219,12 +3219,12 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
@@ -3269,12 +3269,12 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
@@ -3319,10 +3319,9 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
@@ -3636,7 +3635,7 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7570,7 +7569,7 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
@@ -9821,7 +9820,7 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
@@ -9866,7 +9865,7 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
@@ -9911,7 +9910,7 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
@@ -9956,7 +9955,7 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
@@ -10001,7 +10000,7 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
@@ -10046,7 +10045,7 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
@@ -10091,7 +10090,7 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
@@ -10136,7 +10135,7 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
@@ -10181,7 +10180,7 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
@@ -10226,7 +10225,7 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
@@ -10271,7 +10270,7 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
@@ -10316,7 +10315,7 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
@@ -11884,13 +11883,13 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender for Cloud Standard를 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11901,7 +11900,7 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
@@ -11929,13 +11928,13 @@
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11946,14 +11945,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11974,13 +11973,13 @@
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11991,14 +11990,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12014,12 +12013,12 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12036,14 +12035,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12059,18 +12058,18 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12081,14 +12080,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12104,18 +12103,18 @@
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호Secure privileged access</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한이 부여된 관리자 계정을 분리합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12126,15 +12125,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12150,18 +12148,18 @@
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12172,14 +12170,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12195,18 +12193,18 @@
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12217,14 +12215,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,45 +12231,135 @@
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="n"/>
-      <c r="B245" s="21" t="n"/>
-      <c r="C245" s="21" t="n"/>
+      <c r="A245" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B245" s="21" t="inlineStr">
+        <is>
+          <t>권한 있는 액세스 보호Secure privileged access</t>
+        </is>
+      </c>
+      <c r="C245" s="21" t="inlineStr">
+        <is>
+          <t>Azure 관리 작업에 대한 권한이 부여된 관리자 계정을 분리합니다.</t>
+        </is>
+      </c>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="n"/>
+      <c r="E245" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G245" s="21" t="n"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="n"/>
+      <c r="L245" s="25" t="inlineStr">
+        <is>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+        </is>
+      </c>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="n"/>
-      <c r="B246" s="21" t="n"/>
-      <c r="C246" s="21" t="n"/>
+      <c r="A246" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
+          <t>서비스 지원 프레임워크</t>
+        </is>
+      </c>
+      <c r="C246" s="21" t="inlineStr">
+        <is>
+          <t>새 Azure 서비스 구현 방법 계획</t>
+        </is>
+      </c>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="n"/>
+      <c r="E246" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G246" s="21" t="n"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="n"/>
+      <c r="L246" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="n"/>
-      <c r="B247" s="21" t="n"/>
-      <c r="C247" s="21" t="n"/>
+      <c r="A247" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B247" s="21" t="inlineStr">
+        <is>
+          <t>서비스 지원 프레임워크</t>
+        </is>
+      </c>
+      <c r="C247" s="21" t="inlineStr">
+        <is>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+        </is>
+      </c>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="n"/>
+      <c r="E247" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G247" s="21" t="n"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="n"/>
+      <c r="L247" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13173,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>DNS 프록시와 함께 FQDN 기반 네트워크 규칙 및 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 서비스 엔드포인트를 사용하는 경우 NVA에서 송신 FQDN을 필터링하여 데이터 반출을 방지합니다.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스로의 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 테넌트</t>
+          <t>Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1105,17 +1105,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 테넌트</t>
+          <t>Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 테넌트를 관리하기 위한 다중 테넌트 자동화 접근 방식이 있는지 확인합니다.</t>
+          <t>Microsoft Entra ID 테넌트를 관리하기 위한 다중 테넌트 자동화 접근 방식이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 테넌트</t>
+          <t>Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>계정이 '회사 및 학교 계정' 형식으로 구성되어 있는지 확인합니다.</t>
+          <t>계정이 '회사 또는 학교 계정' 형식으로 구성되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>EA 등록에서 DA 요금 보기 및 AO 요금 보기를 모두 사용하도록 설정하여 사용자가 비용 및 청구 데이터를 올바르게 검토할 수 있도록 합니다.</t>
+          <t>EA 등록에서 DA 요금 보기 및 AO 요금 보기를 모두 사용하도록 설정하여 올바른 권한이 있는 사용자가 비용 및 청구 데이터를 검토할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1611,12 +1611,12 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 클라우드 계약</t>
+          <t>Microsoft 고객 계약</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1657,12 +1657,12 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 클라우드 계약</t>
+          <t>Microsoft 고객 계약</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1703,12 +1703,12 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 클라우드 계약</t>
+          <t>Microsoft 고객 계약</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1749,12 +1749,12 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 클라우드 계약</t>
+          <t>Microsoft 고객 계약</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1795,17 +1795,17 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>Microsoft Entra ID 및 하이브리드 ID</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 환경에 대한 제어를 정의하여 관련 정책을 그룹화합니다.</t>
+          <t>Azure 서비스에 대한 인증에 서비스 주체 대신 관리 ID 사용Use managed identities instead of service principals for authentication to Azure services</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,15 +1822,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1841,17 +1845,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>마이크로소프트 엔트라 ID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1872,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1880,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1887,23 +1891,23 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1914,15 +1918,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I26" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,17 +1941,17 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
+          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족하는 클라우드 네이티브 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1960,14 +1968,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1978,23 +1986,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 가장 낮은 수준의 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에 대한 범위 지정 및 할당Scope and assign across management groups and subscriptions.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2005,14 +2013,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2023,17 +2036,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Microsoft Entra ID 조건부 액세스 정책 적용</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2050,14 +2063,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2068,23 +2086,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2113,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2113,24 +2136,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>역할 및 보안 요구 사항에 따라 landing zone 내에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 적용합니다</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2144,14 +2163,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2162,17 +2186,17 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
+          <t>Microsoft Entra ID PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2189,15 +2213,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2208,23 +2236,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2235,15 +2263,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2254,17 +2286,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>사용 권한을 할당하는 데는 그룹만 사용합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2281,15 +2313,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2305,18 +2341,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Active Directory 및 하이브리드 ID</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 인증에 서비스 주체 대신 관리 ID 사용Use managed identities instead of service principals for authentication to Azure services</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2327,19 +2363,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2355,12 +2391,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Azure AD</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
+          <t>AADDS(Azure Active Directory Domains Services)를 사용 중인 경우 이 서비스는 하나의 구독에만 프로젝션할 수 있으므로 주 지역 내에 AADDS를 배포합니다</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,15 +2413,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I36" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+        </is>
+      </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2406,13 +2446,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
+          <t>AADDS를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2423,19 +2463,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2456,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족하는 클라우드 네이티브 옵션을 제공합니다.</t>
+          <t>Windows 서버의 AD를 사용 중인 경우 Azure의 리소스가 올바른 도메인 컨트롤러를 사용하고 있나요?</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2473,15 +2513,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2502,13 +2546,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에 대한 범위 지정 및 할당Scope and assign across management groups and subscriptions.</t>
+          <t>Microsoft Entra ID 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2519,19 +2563,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2552,13 +2596,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Azure AD 조건부 액세스 정책 적용</t>
+          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2569,19 +2613,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2597,18 +2641,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>착륙 구역</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>가상 네트워크를 사용하여 ID(ADDS) 네트워크 구분을 구성하고 허브에 다시 피어링합니다. 응용 프로그램 랜딩 존(레거시) 내에서 인증을 제공합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2619,19 +2663,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2647,12 +2691,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>착륙 구역</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>역할 및 보안 요구 사항에 따라 landing zone 내에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 적용합니다</t>
+          <t xml:space="preserve">가능한 경우 Azure RBAC를 사용하여 리소스에 대한 데이터 평면 액세스를 관리합니다. 예: Key Vault, 스토리지 계정 및 데이터베이스 서비스 전반의 데이터 작업. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2669,19 +2713,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2697,12 +2741,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>착륙 구역</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure AD PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
+          <t>Microsoft Entra ID PIM 액세스 검토를 사용하여 리소스 자격의 유효성을 주기적으로 검사합니다.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2719,19 +2763,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2742,17 +2782,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>이름 지정 및 태깅</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
+          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2769,19 +2809,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2792,17 +2828,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>사용 권한을 할당하는 데는 그룹만 사용합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>4개 수준 이하의 합리적으로 플랫한 관리 그룹 계층 구조를 적용합니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2819,19 +2855,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2842,17 +2878,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
+          <t>사용자가 Azure를 즉시 실험할 수 있도록 샌드박스 관리 그룹 적용</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2869,19 +2905,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2892,17 +2928,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 일반적인 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2919,19 +2955,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2942,17 +2978,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>AADDS(Azure Active Directory Domains Services)를 사용 중인 경우 이 서비스는 하나의 구독에만 프로젝션할 수 있으므로 주 지역 내에 AADDS를 배포합니다</t>
+          <t>연결 관리 그룹에서 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 프라이빗 DNS(Domain Name System), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스트합니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2969,19 +3005,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2992,17 +3028,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>AADDS를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
+          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3019,19 +3055,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3042,17 +3073,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Windows 서버의 AD가 사용 중인 경우 필요한 모든 리소스가 올바른 도메인 컨트롤러에 액세스할 수 있나요?</t>
+          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용합니다</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3069,19 +3100,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3092,17 +3119,17 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>루트 수준 관리 그룹 아래에 관리 그룹을 적용하여 보안, 규정 준수, 연결 및 기능 요구 사항에 따라 워크로드 유형을 나타냅니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3119,19 +3146,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3142,23 +3165,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
+          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토, 예산 검토, 정책 준수에 액세스하고, 필요한 경우 수정할 수 있도록 프로세스를 적용합니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3169,19 +3192,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3192,23 +3211,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>착륙 구역</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크를 사용하여 ID(ADDS) 네트워크 구분을 구성하고 허브에 다시 피어링합니다. 응용 프로그램 랜딩 존(레거시) 내에서 인증을 제공합니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀이 구독 할당량 및 지정된 구독에 대한 프로비전 리소스에 미치는 영향을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3219,19 +3238,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3242,23 +3256,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>착륙 구역</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">가능한 경우 Azure RBAC를 사용하여 리소스에 대한 데이터 평면 액세스를 관리합니다. 예: Keyvault, 스토리지 계정 및 데이터베이스 서비스 전반의 데이터 작업. </t>
+          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 보장합니다. Azure Policy를 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3269,19 +3283,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3292,23 +3306,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>착륙 구역</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD PIM 액세스 검토를 사용하여 리소스 자격의 유효성을 주기적으로 검사합니다.</t>
+          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준 모니터링Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3319,14 +3333,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3337,23 +3356,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 오탐지 탐지를 확인합니다.</t>
+          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3364,14 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3382,23 +3406,23 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>비용 관리를 위한 프로세스 적용</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3409,14 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3427,17 +3456,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Windows Server의 AD인 경우 Windows Server Active Directory 도메인 컨트롤러를 호스트하기 위해 Indentity 관리 그룹에 전용 ID 구독을 설정합니다</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3454,14 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3472,17 +3506,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정이 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3499,14 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3517,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3544,19 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3567,17 +3601,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>내부(corp) 및 외부용 앱(online) 모두에 대해 랜딩 존 내에서 앱 배달을 수행합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3592,12 +3626,21 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3608,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 데이터를 보관된 상태로 유지할 수 있습니다.</t>
+          <t>Application Gateway v2 SKU를 사용하고 있는지 확인</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3635,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3658,17 +3701,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure Load Balancer에 표준 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3685,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3708,17 +3747,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>응용 프로그램 게이트웨이는 IP 접두사가 /26보다 크거나 같은 서브넷에 배포해야 합니다</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3735,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3758,20 +3797,24 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="n"/>
+          <t>랜딩 존 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="inlineStr">
+        <is>
+          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3785,19 +3828,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3808,17 +3851,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3835,19 +3878,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3858,17 +3901,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3885,19 +3928,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3908,23 +3951,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 마련합니다.</t>
+          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3935,15 +3978,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3954,23 +4001,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함Include service and resource health events as part of the overall platform monitoring solution. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3981,15 +4028,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4000,23 +4051,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 처리할 수 있도록 경고 및 작업 그룹을 Azure Service Health 플랫폼의 일부로 포함합니다</t>
+          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Microsoft Entra ID 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4027,15 +4078,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4046,17 +4101,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4073,15 +4128,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4092,23 +4151,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>'방지' 모드에서 Front Door에 대한 WAF 프로필을 배포합니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4119,7 +4178,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4127,7 +4186,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4138,23 +4197,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4165,7 +4224,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4173,7 +4232,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4184,23 +4243,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
+          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4211,7 +4270,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4219,7 +4278,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4230,23 +4289,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>운영 경고 생성에 Azure Monitor 경고를 사용합니다.</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4257,7 +4316,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4265,7 +4324,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4276,17 +4335,17 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4303,7 +4362,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4311,7 +4370,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4322,23 +4381,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>Azure Front Door에서 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4349,7 +4408,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4357,7 +4416,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4368,23 +4427,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>운영 적합성</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
+          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4395,7 +4454,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4403,7 +4462,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4414,27 +4473,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>운영 적합성</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4445,7 +4500,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4453,7 +4508,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4464,17 +4519,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure 간 Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 여러 지역에 걸쳐 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4491,7 +4546,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4499,7 +4554,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4510,17 +4565,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 이 암호화 흐름을 보여 줍니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4537,7 +4592,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4545,7 +4600,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4556,23 +4611,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 타사 백업 솔루션을 사용합니다.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 ExpressRoute 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4583,15 +4638,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4602,23 +4661,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 가용성 영역을 활용합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4629,15 +4688,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4648,17 +4711,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이, Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스가 중앙 허브 가상 네트워크에 있는지 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4675,7 +4738,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4683,7 +4746,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4694,17 +4757,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4721,7 +4784,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4729,7 +4792,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4740,23 +4803,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale sets를 활용하여 부하에 따라 스케일 업 및 스케일 다운합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4767,7 +4830,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4775,7 +4838,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4791,18 +4854,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4813,7 +4876,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4821,7 +4884,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4837,12 +4900,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>내부(corp) 및 외부용 앱(online) 모두에 대해 랜딩 존 내에서 앱 배달을 수행합니다.</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4859,19 +4922,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4887,12 +4950,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU를 사용하고 있는지 확인</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4909,19 +4972,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4937,12 +5000,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 표준 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한(500), ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)를 고려합니다</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4959,7 +5022,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4967,7 +5030,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4983,12 +5046,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 게이트웨이는 IP 접두사가 /26보다 크거나 같은 서브넷에 배포해야 합니다</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5005,19 +5068,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5033,22 +5092,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
-        </is>
-      </c>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5059,19 +5114,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5087,12 +5138,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5109,19 +5160,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5137,15 +5188,19 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5159,19 +5214,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5187,12 +5242,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5209,19 +5264,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5237,12 +5292,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5259,19 +5314,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5287,18 +5338,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Azure AD 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5309,19 +5360,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5337,12 +5384,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스 권한을 제공하는 것이 좋습니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5359,19 +5406,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5387,18 +5434,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>'방지' 모드에서 Front Door에 대한 WAF 프로필을 배포합니다.</t>
+          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5409,15 +5456,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5433,18 +5484,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5455,15 +5506,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5479,18 +5534,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5501,15 +5556,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5525,18 +5584,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5547,15 +5606,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5571,12 +5634,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5593,15 +5656,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5617,18 +5684,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5639,15 +5706,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5663,18 +5734,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5685,15 +5756,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5709,18 +5784,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5731,15 +5806,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5755,18 +5834,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
+          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5777,7 +5856,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5785,7 +5864,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5801,18 +5880,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 이 암호화 흐름을 보여 줍니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5823,15 +5902,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5847,12 +5930,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 ExpressRoute 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5869,19 +5952,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5897,18 +5980,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5919,7 +6002,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
@@ -5931,7 +6014,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5947,12 +6030,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이, Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스가 중앙 허브 가상 네트워크에 있는지 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5969,14 +6052,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5992,12 +6080,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6014,15 +6102,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6038,18 +6130,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6060,15 +6152,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6084,12 +6180,12 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6106,7 +6202,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6114,7 +6210,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6130,18 +6226,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6152,19 +6248,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6180,12 +6276,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6202,19 +6298,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6230,12 +6321,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한(500), ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)를 고려합니다</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6252,14 +6343,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6275,18 +6366,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6297,15 +6388,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6321,18 +6416,18 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6343,14 +6438,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6366,18 +6466,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6388,19 +6488,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6416,19 +6516,15 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -6442,19 +6538,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6470,18 +6566,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6492,19 +6588,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6520,12 +6616,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
+          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6542,15 +6638,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6566,12 +6666,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6588,15 +6688,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6612,18 +6716,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>DNS 프록시와 함께 FQDN 기반 네트워크 규칙 및 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6634,19 +6738,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6662,18 +6762,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6684,19 +6784,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6712,18 +6807,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6734,19 +6829,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6762,18 +6852,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6784,19 +6874,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6812,12 +6897,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6834,19 +6919,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6862,18 +6942,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6884,19 +6964,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6912,12 +6992,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -6934,19 +7014,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -6962,12 +7042,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -6984,7 +7064,7 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6996,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7012,12 +7092,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7034,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7062,18 +7142,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>파스 보안</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스로의 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7084,14 +7164,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7107,12 +7192,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7129,19 +7214,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7157,18 +7237,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7179,19 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7207,18 +7282,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7229,19 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7257,18 +7327,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7279,19 +7349,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7307,12 +7377,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7329,19 +7399,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7357,12 +7427,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7377,21 +7447,17 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
+      <c r="H140" s="15" t="n"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7407,18 +7473,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7429,14 +7495,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7452,18 +7523,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7474,19 +7545,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7502,12 +7573,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7524,14 +7595,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7547,12 +7623,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7569,14 +7645,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7592,18 +7668,18 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
+          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7614,19 +7690,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7642,12 +7713,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7664,7 +7735,7 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7676,7 +7747,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7692,18 +7763,18 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7714,19 +7785,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7742,12 +7808,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7764,19 +7830,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7792,18 +7853,18 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7814,19 +7875,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7842,18 +7898,18 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7864,19 +7920,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7892,18 +7943,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7914,19 +7965,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7942,12 +7988,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>DNS 프록시와 함께 FQDN 기반 네트워크 규칙 및 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7964,14 +8010,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7987,12 +8033,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8009,14 +8055,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8032,18 +8078,18 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8054,14 +8100,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8077,12 +8123,12 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8099,14 +8145,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8122,12 +8168,12 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8144,14 +8190,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8167,12 +8213,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8189,19 +8235,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8217,18 +8258,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8239,19 +8280,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8267,18 +8303,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8289,19 +8325,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8348,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8370,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8393,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스로의 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,19 +8415,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8417,18 +8438,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8439,14 +8460,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8462,18 +8483,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8484,14 +8505,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8507,12 +8528,12 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8529,14 +8550,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8547,23 +8568,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 환경에 대한 제어를 정의하여 관련 정책을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8574,19 +8595,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8597,17 +8613,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8624,19 +8640,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8647,17 +8658,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8672,17 +8683,16 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="n"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H167" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8693,17 +8703,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8720,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8743,17 +8748,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>필요한 경우 가장 낮은 수준의 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8770,19 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8793,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,19 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8843,17 +8838,17 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8888,23 +8883,27 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="inlineStr">
+        <is>
+          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8915,14 +8914,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8933,17 +8932,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,19 +8959,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,17 +8977,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9004,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9055,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,17 +9072,17 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Azure Virtual Machine Scale sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9163,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 오탐지 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9190,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9208,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9235,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9280,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9298,17 +9297,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정이 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9343,23 +9342,23 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9370,14 +9369,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,23 +9392,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9413,16 +9417,11 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
-        </is>
-      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9433,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 데이터를 보관된 상태로 유지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9460,14 +9459,19 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9478,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9505,14 +9509,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9523,23 +9532,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9550,14 +9559,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9568,17 +9582,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9595,14 +9609,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,17 +9632,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9640,14 +9659,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9658,17 +9682,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9685,14 +9709,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9703,17 +9732,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 마련합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9730,14 +9759,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9748,17 +9777,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함Include service and resource health events as part of the overall platform monitoring solution. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9775,14 +9804,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9793,23 +9822,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Azure Landing Zone 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>경고 또는 문제를 처리할 수 있도록 경고 및 작업 그룹을 Azure Service Health 플랫폼의 일부로 포함합니다</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9820,14 +9849,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9838,23 +9867,23 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀을 위한 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9865,14 +9894,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9883,23 +9912,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9910,14 +9939,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9928,23 +9957,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9955,14 +9984,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9973,17 +10002,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>빌드 프로세스의 일부로 IaC 및 애플리케이션 코드에 대한 단위 테스트를 포함합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10000,14 +10029,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10018,23 +10047,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>운영 경고 생성에 Azure Monitor 경고를 사용합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10045,14 +10074,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10063,23 +10092,23 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10090,14 +10119,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10108,23 +10137,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>개발 라이프사이클</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 애플리케이션 및 개발된 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10135,14 +10164,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10153,23 +10182,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>개발 라이프사이클</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 하는 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10180,14 +10209,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,20 +10227,24 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>개발 라이프사이클</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 계속 제어할 수 있도록 끌어오기 요청 전략을 채택합니다.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E201" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -10225,14 +10258,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10243,23 +10276,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 IaaS(Infrastructure as Code) 도구를 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점 모두에서.</t>
+          <t>Azure 간 Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 여러 지역에 걸쳐 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10270,14 +10303,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10288,23 +10321,23 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10315,14 +10348,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10333,23 +10366,23 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>이름 지정 및 태깅</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 모범 사례 명명 표준을 따르는 것이 좋습니다</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 타사 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10360,14 +10393,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10378,23 +10411,23 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>4개 수준 이하의 합리적으로 플랫한 관리 그룹 계층 구조를 적용합니다.</t>
+          <t>VM이 지원되는 지역의 VM에 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10405,19 +10438,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,23 +10456,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 리소스 태그 적용 또는 추가Enforce or appended resource tags through Azure Policy</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10455,19 +10483,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10478,17 +10501,17 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>사용자가 Azure를 즉시 실험할 수 있도록 샌드박스 관리 그룹 적용</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10505,19 +10528,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10528,17 +10546,17 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 일반적인 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10555,19 +10573,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10578,17 +10591,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 관리 그룹에서 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 프라이빗 DNS(Domain Name System), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스트합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10605,19 +10618,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10628,23 +10636,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10655,14 +10663,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10673,17 +10681,17 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용합니다</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10700,14 +10708,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10718,17 +10726,17 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>루트 수준 관리 그룹 아래에 관리 그룹을 적용하여 보안, 규정 준수, 연결 및 기능 요구 사항에 따라 워크로드 유형을 나타냅니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10745,14 +10753,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10763,23 +10771,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토, 예산 검토, 정책 준수에 액세스하고, 필요한 경우 수정할 수 있도록 프로세스를 적용합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10790,14 +10798,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10808,17 +10816,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 리소스 제한 사항을 알고 있는지 확인합니다.</t>
+          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10835,14 +10843,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10853,23 +10861,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 보장합니다. Azure Policy를 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
+          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10880,19 +10888,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10903,23 +10906,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준 모니터링Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10930,19 +10933,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10953,17 +10951,17 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10980,19 +10978,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11003,23 +10996,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>비용 관리를 위한 프로세스 적용</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11030,19 +11023,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11053,17 +11041,17 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 플랫폼 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11080,19 +11068,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11103,17 +11086,17 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>자원 조직</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
+          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11130,19 +11113,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11158,12 +11136,12 @@
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11180,14 +11158,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11203,12 +11181,12 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
@@ -11225,14 +11203,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11248,18 +11226,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11270,14 +11248,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11293,18 +11271,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11315,14 +11293,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11338,18 +11316,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11360,14 +11338,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11383,18 +11361,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Azure AD(Azure Active Directory) 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11405,14 +11383,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11428,18 +11406,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11450,14 +11428,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11473,12 +11451,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11495,14 +11473,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11518,12 +11496,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11540,14 +11518,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11563,18 +11541,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11585,14 +11563,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11608,18 +11586,18 @@
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11630,14 +11608,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11653,18 +11631,18 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>권한 있는 액세스 보호Secure privileged access</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11675,14 +11653,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11698,12 +11676,12 @@
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
@@ -11720,14 +11698,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11743,12 +11721,12 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -11765,14 +11743,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11783,23 +11761,23 @@
     <row r="235">
       <c r="A235" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>Azure Landing Zone 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11810,14 +11788,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11828,23 +11806,23 @@
     <row r="236">
       <c r="A236" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Azure 랜딩 존 플랫폼 팀을 위한 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11855,14 +11833,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11873,23 +11851,23 @@
     <row r="237">
       <c r="A237" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11900,14 +11878,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11918,17 +11896,17 @@
     <row r="238">
       <c r="A238" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -11945,14 +11923,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11963,23 +11941,23 @@
     <row r="239">
       <c r="A239" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>빌드 프로세스의 일부로 IaC 및 애플리케이션 코드에 대한 단위 테스트를 포함합니다.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11990,14 +11968,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12008,17 +11986,17 @@
     <row r="240">
       <c r="A240" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12035,14 +12013,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12053,23 +12031,23 @@
     <row r="241">
       <c r="A241" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12080,14 +12058,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12098,23 +12076,23 @@
     <row r="242">
       <c r="A242" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>개발 라이프사이클</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>버전 제어 시스템이 애플리케이션 및 개발된 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12125,14 +12103,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12143,23 +12121,23 @@
     <row r="243">
       <c r="A243" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>개발 라이프사이클</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 하는 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12170,14 +12148,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12188,23 +12166,23 @@
     <row r="244">
       <c r="A244" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>개발 라이프사이클</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>분기에 병합된 코드 변경 내용을 계속 제어할 수 있도록 끌어오기 요청 전략을 채택합니다.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12215,14 +12193,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,17 +12211,17 @@
     <row r="245">
       <c r="A245" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B245" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호Secure privileged access</t>
+          <t>개발 전략</t>
         </is>
       </c>
       <c r="C245" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한이 부여된 관리자 계정을 분리합니다.</t>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 IaaS(Infrastructure as Code) 도구를 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점 모두에서.</t>
         </is>
       </c>
       <c r="D245" s="21" t="n"/>
@@ -12260,14 +12238,14 @@
       <c r="G245" s="21" t="n"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
       <c r="L245" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M245" s="25" t="n"/>
@@ -12278,23 +12256,23 @@
     <row r="246">
       <c r="A246" s="21" t="inlineStr">
         <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
           <t>안전</t>
         </is>
       </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>서비스 지원 프레임워크</t>
-        </is>
-      </c>
       <c r="C246" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
         </is>
       </c>
       <c r="D246" s="21" t="n"/>
       <c r="E246" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -12305,14 +12283,14 @@
       <c r="G246" s="21" t="n"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
       <c r="L246" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M246" s="25" t="n"/>
@@ -12321,45 +12299,15 @@
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B247" s="21" t="inlineStr">
-        <is>
-          <t>서비스 지원 프레임워크</t>
-        </is>
-      </c>
-      <c r="C247" s="21" t="inlineStr">
-        <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
-        </is>
-      </c>
+      <c r="A247" s="21" t="n"/>
+      <c r="B247" s="21" t="n"/>
+      <c r="C247" s="21" t="n"/>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E247" s="21" t="n"/>
       <c r="G247" s="21" t="n"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L247" s="25" t="n"/>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13261,7 +13209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13352,7 +13300,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Azure 청구 및 Active Directory 테넌트</t>
+          <t>Azure 청구 및 Microsoft Entra ID 테넌트</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>CSP 파트너와 지원 요청 및 에스컬레이션 프로세스에 대해 논의</t>
+          <t>CSP 파트너와 지원 요청 및 에스컬레이션 프로세스 논의</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure Cost Management를 사용하여 비용 보고 및 보기 설정Setup Cost Reporting and Views with Azure Cost Management</t>
+          <t>Azure Cost Management를 사용하여 Cost Reporting 및 뷰 설정Setup Cost Reporting and Views with Azure Cost Management</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>기업계약</t>
+          <t>기업 계약</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>그룹 사서함에 대한 알림 연락처 구성</t>
+          <t>Configure Notification Contacts to a group mailbox 그룹 사서함에 대한 알림 연락처 구성Configure Notification Contacts to a group mailbox</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>기업계약</t>
+          <t>기업 계약</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>기업계약</t>
+          <t>기업 계약</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>계정이 '회사 또는 학교 계정' 형식으로 구성되어 있는지 확인합니다.</t>
+          <t>계정이 '회사 또는 학교 계정' 유형으로 구성되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>기업계약</t>
+          <t>기업 계약</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>EA 등록에서 DA 요금 보기 및 AO 요금 보기를 모두 사용하도록 설정하여 올바른 권한이 있는 사용자가 비용 및 청구 데이터를 검토할 수 있도록 합니다.</t>
+          <t>EA 등록에서 DA 보기 요금과 AO 보기 요금을 모두 활성화하여 올바른 권한을 가진 사용자가 비용 및 청구 데이터를 검토할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>기업계약</t>
+          <t>기업 계약</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Enterprise 개발/테스트 구독을 사용하여 비프로덕션 워크로드에 대한 비용 절감Make use of Enterprise Dev/Test Subscriptions to reduce costs for non-production workloads</t>
+          <t>Enterprise 개발/테스트 구독을 사용하여 비프로덕션 워크로드에 대한 비용 절감</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>기업계약</t>
+          <t>기업 계약</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>계약 청구 계정 알림 연락처 전자 메일 구성</t>
+          <t>계약 청구 계정 알림 연락처 이메일 구성</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>청구 프로필 및 청구서 섹션을 사용하여 효과적인 비용 관리를 위해 계약 청구를 구성합니다</t>
+          <t>청구 프로필 및 청구서 섹션을 사용하여 효과적인 비용 관리를 위한 계약 청구를 구성합니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Azure Plan을 사용하여 비프로덕션 워크로드에 대한 비용 절감</t>
+          <t>Azure 플랜을 사용하여 비프로덕션 워크로드에 대한 비용 절감</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>계약 청구 RBAC 역할 할당을 주기적으로 감사하여 MCA 청구 계정에 액세스할 수 있는 사용자를 검토합니다</t>
+          <t>계약 청구 RBAC 역할 할당을 정기적으로 감사하여 MCA 청구 계정에 액세스할 수 있는 사용자를 검토합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 인증에 서비스 주체 대신 관리 ID 사용Use managed identities instead of service principals for authentication to Azure services</t>
+          <t>Azure 서비스에 대한 인증을 위해 서비스 주체 대신 관리 ID 사용</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>마이크로소프트 엔트라 ID</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족하는 클라우드 네이티브 옵션을 제공합니다.</t>
+          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에 대한 범위 지정 및 할당Scope and assign across management groups and subscriptions.</t>
+          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>역할 및 보안 요구 사항에 따라 landing zone 내에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 적용합니다</t>
+          <t>역할 및 보안 요구 사항에 따라 landing zone 내에 배포된 리소스를 관리하기 위해 중앙 집중식 및 위임된 책임을 적용합니다.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>사용 권한을 할당하는 데는 그룹만 사용합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>AADDS를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
+          <t>AADDS가 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>Microsoft Entra ID 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체품으로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
+          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>착륙 구역</t>
+          <t>랜딩 존</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크를 사용하여 ID(ADDS) 네트워크 구분을 구성하고 허브에 다시 피어링합니다. 응용 프로그램 랜딩 존(레거시) 내에서 인증을 제공합니다.</t>
+          <t>가상 네트워크를 사용하여 ID(ADDS) 네트워크 구분을 구성하고 허브로 다시 피어링합니다. 응용 프로그램 랜딩 존(레거시) 내에서 인증을 제공합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2691,12 +2691,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>착륙 구역</t>
+          <t>랜딩 존</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">가능한 경우 Azure RBAC를 사용하여 리소스에 대한 데이터 평면 액세스를 관리합니다. 예: Key Vault, 스토리지 계정 및 데이터베이스 서비스 전반의 데이터 작업. </t>
+          <t xml:space="preserve">가능한 경우 Azure RBAC를 사용하여 리소스에 대한 데이터 평면 액세스를 관리합니다. 예: Key Vault, Storage 계정 및 데이터베이스 서비스에서 데이터 작업E.G - Data Operations across Key Vault, Storage Account and Database Services. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>착륙 구역</t>
+          <t>랜딩 존</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>이름 지정 및 태깅</t>
+          <t>이름 지정 및 태그 지정</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>4개 수준 이하의 합리적으로 플랫한 관리 그룹 계층 구조를 적용합니다.</t>
+          <t>4개 이하의 수준으로 합리적으로 평평한 관리 그룹 계층 구조를 적용합니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 일반적인 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
+          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 공통 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 합니다.</t>
+          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 적용</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용합니다</t>
+          <t>관리 그룹 계층 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀이 구독 할당량 및 지정된 구독에 대한 프로비전 리소스에 미치는 영향을 알고 있는지 확인합니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀이 구독 할당량 및 지정된 구독에 대한 리소스 프로비전에 미치는 영향을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 보장합니다. Azure Policy를 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
+          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 확보합니다. Azure Policy를 통해 구매한 Reserved Instance VM SKU의 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준 모니터링Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준을 모니터링합니다</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 Windows Server Active Directory 도메인 컨트롤러를 호스트하기 위해 Indentity 관리 그룹에 전용 ID 구독을 설정합니다</t>
+          <t>Windows Server의 AD인 경우 Indentity 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>Application Gateway 및 Azure Front door를 사용하여 워크로드 스포크에서 배달 애플리케이션 콘텐츠를 보호하기 위한 계획을 개발합니다.  응용 프로그램 배달 검사 목록을 사용하여 권장 사항을 확인할 수 있습니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>내부(corp) 및 외부용 앱(online) 모두에 대해 랜딩 존 내에서 앱 배달을 수행합니다.</t>
+          <t>랜딩 존 내에서 내부 연결(corp) 및 외부 연결 앱(온라인) 모두에 대해 앱 배달을 수행합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU를 사용하고 있는지 확인</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 표준 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,7 +3728,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3736,7 +3736,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3752,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 게이트웨이는 IP 접두사가 /26보다 크거나 같은 서브넷에 배포해야 합니다</t>
+          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,19 +3802,15 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
-        </is>
-      </c>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3828,19 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3856,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3878,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3906,12 +3897,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3928,19 +3919,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3956,18 +3943,18 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,19 +3965,15 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4006,18 +3989,18 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4028,19 +4011,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4056,18 +4035,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Microsoft Entra ID 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4078,19 +4057,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4106,12 +4085,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4128,19 +4107,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4156,18 +4135,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>'방지' 모드에서 Front Door에 대한 WAF 프로필을 배포합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4178,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4186,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4202,18 +4181,18 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4224,7 +4203,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4232,7 +4211,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4248,12 +4227,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4270,7 +4249,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4278,7 +4257,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4294,18 +4273,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4316,15 +4295,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4340,15 +4323,19 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 사용자 고유의 라우터에서 전체 범위의 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4362,15 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4386,18 +4377,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4408,15 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,12 +4427,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4454,7 +4449,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4462,7 +4457,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,12 +4473,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4500,7 +4495,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4508,7 +4503,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,12 +4519,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4546,15 +4541,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4570,12 +4569,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 이 암호화 흐름을 보여 줍니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4592,15 +4591,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4616,18 +4619,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 ExpressRoute 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4638,19 +4641,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4666,12 +4669,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4688,19 +4691,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4716,12 +4719,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이, Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스가 중앙 허브 가상 네트워크에 있는지 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4738,15 +4741,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4762,12 +4769,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4784,15 +4791,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4808,18 +4819,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,15 +4841,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4854,18 +4869,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>환경 전체의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4876,15 +4891,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4900,12 +4919,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4922,19 +4941,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4950,18 +4969,18 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>AD DS를 실행하는 VM을 도메인 컨트롤러로 두 개 이상 배포하는 경우 서로 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4972,19 +4991,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5000,18 +5015,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한(500), ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)를 고려합니다</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5022,15 +5037,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5046,18 +5065,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5068,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5092,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5114,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5138,18 +5165,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5160,19 +5187,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5188,19 +5215,15 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5214,19 +5237,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5242,12 +5265,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5264,19 +5287,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5292,18 +5315,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용하고 있는지 확인합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5314,7 +5337,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5322,7 +5345,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5338,12 +5361,12 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5360,15 +5383,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5384,12 +5411,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5406,19 +5433,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5434,12 +5457,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5456,19 +5479,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5484,18 +5503,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하도록 설정하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5506,19 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5534,12 +5553,12 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5556,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5584,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5606,19 +5625,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5634,12 +5653,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5656,19 +5675,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5684,18 +5703,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5706,19 +5725,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5734,18 +5753,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링에 연결 모니터를 사용합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5756,19 +5775,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5784,18 +5803,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5806,19 +5825,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5834,12 +5853,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 두 개 이상 도메인 컨트롤러로 배포하는 경우 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5856,7 +5875,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5864,7 +5883,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5880,12 +5899,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5902,19 +5921,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5930,18 +5945,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷의 주소 할당 범위에서 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5952,19 +5967,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5980,12 +5991,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6002,19 +6013,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6030,12 +6037,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6052,19 +6059,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6080,18 +6082,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')으로 확인하기 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6102,19 +6104,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6130,12 +6132,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6152,19 +6154,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6180,18 +6182,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 기본 DNS 솔루션을 사용해야 합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6202,15 +6204,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6226,18 +6232,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6248,19 +6254,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6276,12 +6282,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6298,14 +6304,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6321,18 +6332,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6343,14 +6354,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6366,12 +6377,12 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6388,19 +6399,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6416,12 +6423,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>글로벌 네트워크 환경에서 보안 태세를 제어하는 글로벌 Azure Firewall 정책을 만들고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6438,19 +6445,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6466,18 +6468,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6488,19 +6490,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6516,12 +6518,12 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6538,19 +6540,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6566,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,21 +6588,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6616,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에는 WIF 배포 및 기타 역방향 프록시가 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6638,19 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6666,18 +6664,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6688,19 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6716,18 +6714,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>DNS 프록시와 함께 FQDN 기반 네트워크 규칙 및 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6738,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6762,18 +6764,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6784,14 +6786,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,18 +6809,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6829,14 +6831,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6852,18 +6854,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6874,14 +6876,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6897,18 +6904,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>VNet의 서브넷이 Virtual WAN에 연결되지 않은 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6919,14 +6926,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6942,18 +6949,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 끊어지지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6964,19 +6971,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6992,12 +6994,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7014,19 +7016,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7042,12 +7039,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7064,19 +7061,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7092,12 +7084,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7114,19 +7106,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7142,18 +7129,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스로의 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,19 +7151,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7187,17 +7169,17 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7214,14 +7196,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7232,23 +7214,23 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 대해 최소 /27 접두사 사용Use at least a /27 prefix for your Gateway subnets</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7259,14 +7241,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7277,17 +7259,17 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7286,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7322,17 +7304,17 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,19 +7331,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,17 +7349,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,19 +7376,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,23 +7394,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7447,17 +7419,16 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7468,17 +7439,17 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7495,19 +7466,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7518,20 +7484,24 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7545,19 +7515,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7568,17 +7533,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7595,19 +7560,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7618,17 +7578,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7645,14 +7605,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7663,17 +7628,17 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙에 따라 Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생합니다</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7690,14 +7655,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7708,17 +7673,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링의 경우 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7735,19 +7700,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7758,17 +7718,17 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7785,14 +7745,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7803,23 +7763,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7830,14 +7790,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7848,17 +7808,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7875,14 +7835,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7893,17 +7853,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7920,14 +7880,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7938,17 +7898,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하고 있는지 확인하고, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7965,14 +7925,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7983,23 +7943,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8010,14 +7970,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8028,23 +7993,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로의 연결 및 Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8053,16 +8018,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8073,17 +8034,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8100,14 +8061,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8118,23 +8084,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8145,14 +8111,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8163,23 +8134,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure Front Door WAF를 조정합니다. 거짓 긍정 탐지를 줄입니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8190,14 +8161,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8208,23 +8184,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에서 방지 모드를 사용합니다. 방지 모드에서는 WAF가 악의적인 요청을 차단합니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8235,14 +8211,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8253,23 +8234,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8280,14 +8261,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8298,23 +8284,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8325,14 +8311,19 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8343,23 +8334,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8370,14 +8361,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8388,17 +8379,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8415,14 +8406,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8433,17 +8424,17 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8460,14 +8451,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8478,23 +8469,23 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8505,14 +8496,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8523,17 +8514,17 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8550,14 +8541,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8568,23 +8559,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 환경에 대한 제어를 정의하여 관련 정책을 그룹화합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8595,14 +8586,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,17 +8604,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용량을 적용합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8640,14 +8631,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8658,17 +8649,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8685,14 +8676,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8703,17 +8694,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8730,14 +8721,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8748,17 +8739,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 가장 낮은 수준의 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8766,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8784,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8811,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8838,20 +8829,24 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -8865,14 +8860,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,24 +8878,20 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy Contributor 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="inlineStr">
-        <is>
-          <t>리소스 정책 참가자 역할을 특정 범위에 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 애플리케이션 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하여 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -8914,14 +8905,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8932,17 +8923,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8959,14 +8950,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8977,17 +8968,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9004,19 +8995,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9027,23 +9013,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9054,14 +9040,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,18 +9063,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9099,14 +9085,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9117,17 +9103,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9130,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9148,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 오탐지 탐지를 확인합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9175,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,17 +9193,17 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9234,14 +9220,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,23 +9238,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9279,14 +9265,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9283,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정이 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9310,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9328,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 플랫폼을 중앙에서 관리합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,19 +9355,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9392,17 +9373,17 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9417,11 +9398,16 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,17 +9418,17 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 데이터를 보관된 상태로 유지할 수 있습니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,19 +9445,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,17 +9463,17 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,19 +9490,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,17 +9508,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9559,19 +9535,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9582,17 +9553,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9609,19 +9580,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9632,17 +9598,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,19 +9625,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9682,17 +9643,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9709,19 +9670,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9732,23 +9688,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 마련합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9759,14 +9715,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9777,17 +9733,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함Include service and resource health events as part of the overall platform monitoring solution. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9804,14 +9760,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9822,17 +9778,17 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 처리할 수 있도록 경고 및 작업 그룹을 Azure Service Health 플랫폼의 일부로 포함합니다</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9849,14 +9805,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9867,17 +9823,17 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9894,14 +9850,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9912,23 +9868,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9939,14 +9895,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9957,23 +9913,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9984,14 +9940,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10002,23 +9958,23 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10029,14 +9985,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10047,23 +10003,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>운영 경고 생성에 Azure Monitor 경고를 사용합니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10074,14 +10030,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10092,17 +10048,17 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10119,14 +10075,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10137,17 +10093,17 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10164,14 +10120,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10182,23 +10138,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규정 준수 기준 VM 구성을 적용합니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10209,14 +10165,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10227,27 +10183,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성과 일치하도록 할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10258,14 +10210,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10276,23 +10228,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure 간 Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 여러 지역에 걸쳐 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10303,14 +10255,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10321,17 +10273,17 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10348,14 +10300,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10366,17 +10318,17 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 타사 백업 솔루션을 사용합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10393,14 +10345,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10411,17 +10363,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 가용성 영역을 활용합니다.</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10438,14 +10390,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10456,23 +10408,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10483,14 +10435,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10501,23 +10453,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10528,14 +10480,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10546,23 +10498,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10573,14 +10525,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10591,17 +10543,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10618,14 +10570,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10636,17 +10588,17 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10663,14 +10615,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10681,23 +10633,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10708,14 +10660,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10726,23 +10678,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10753,14 +10705,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10771,23 +10723,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10798,14 +10750,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10816,17 +10768,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관과 함께 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10843,14 +10795,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10861,23 +10813,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>개발 전략</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 회전을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10888,14 +10840,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10906,23 +10858,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B216" s="21" t="inlineStr">
+        <is>
           <t>안전</t>
         </is>
       </c>
-      <c r="B216" s="21" t="inlineStr">
-        <is>
-          <t>암호화 및 키</t>
-        </is>
-      </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10933,14 +10885,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10949,1350 +10901,450 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B217" s="21" t="inlineStr">
-        <is>
-          <t>암호화 및 키</t>
-        </is>
-      </c>
-      <c r="C217" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
-        </is>
-      </c>
+      <c r="A217" s="21" t="n"/>
+      <c r="B217" s="21" t="n"/>
+      <c r="C217" s="21" t="n"/>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E217" s="21" t="n"/>
       <c r="G217" s="21" t="n"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
-        </is>
-      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="inlineStr">
-        <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
-        </is>
-      </c>
+      <c r="L217" s="25" t="n"/>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B218" s="21" t="inlineStr">
-        <is>
-          <t>암호화 및 키</t>
-        </is>
-      </c>
-      <c r="C218" s="21" t="inlineStr">
-        <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규격 구성을 적용합니다.</t>
-        </is>
-      </c>
+      <c r="A218" s="21" t="n"/>
+      <c r="B218" s="21" t="n"/>
+      <c r="C218" s="21" t="n"/>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E218" s="21" t="n"/>
       <c r="G218" s="21" t="n"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="inlineStr">
-        <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
-        </is>
-      </c>
+      <c r="L218" s="25" t="n"/>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B219" s="21" t="inlineStr">
-        <is>
-          <t>암호화 및 키</t>
-        </is>
-      </c>
-      <c r="C219" s="21" t="inlineStr">
-        <is>
-          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
-        </is>
-      </c>
+      <c r="A219" s="21" t="n"/>
+      <c r="B219" s="21" t="n"/>
+      <c r="C219" s="21" t="n"/>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E219" s="21" t="n"/>
       <c r="G219" s="21" t="n"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
-        </is>
-      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="inlineStr">
-        <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
-        </is>
-      </c>
+      <c r="L219" s="25" t="n"/>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B220" s="21" t="inlineStr">
-        <is>
-          <t>암호화 및 키</t>
-        </is>
-      </c>
-      <c r="C220" s="21" t="inlineStr">
-        <is>
-          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
-        </is>
-      </c>
+      <c r="A220" s="21" t="n"/>
+      <c r="B220" s="21" t="n"/>
+      <c r="C220" s="21" t="n"/>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E220" s="21" t="n"/>
       <c r="G220" s="21" t="n"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L220" s="25" t="n"/>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B221" s="21" t="inlineStr">
-        <is>
-          <t>암호화 및 키</t>
-        </is>
-      </c>
-      <c r="C221" s="21" t="inlineStr">
-        <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
-        </is>
-      </c>
+      <c r="A221" s="21" t="n"/>
+      <c r="B221" s="21" t="n"/>
+      <c r="C221" s="21" t="n"/>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E221" s="21" t="n"/>
       <c r="G221" s="21" t="n"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L221" s="25" t="n"/>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B222" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C222" s="21" t="inlineStr">
-        <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
-        </is>
-      </c>
+      <c r="A222" s="21" t="n"/>
+      <c r="B222" s="21" t="n"/>
+      <c r="C222" s="21" t="n"/>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E222" s="21" t="n"/>
       <c r="G222" s="21" t="n"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L222" s="25" t="n"/>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B223" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C223" s="21" t="inlineStr">
-        <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure Storage로 내보냅니다.</t>
-        </is>
-      </c>
+      <c r="A223" s="21" t="n"/>
+      <c r="B223" s="21" t="n"/>
+      <c r="C223" s="21" t="n"/>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E223" s="21" t="n"/>
       <c r="G223" s="21" t="n"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L223" s="25" t="n"/>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B224" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C224" s="21" t="inlineStr">
-        <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
+      <c r="A224" s="21" t="n"/>
+      <c r="B224" s="21" t="n"/>
+      <c r="C224" s="21" t="n"/>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E224" s="21" t="n"/>
       <c r="G224" s="21" t="n"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
-        </is>
-      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L224" s="25" t="n"/>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B225" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C225" s="21" t="inlineStr">
-        <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
-        </is>
-      </c>
+      <c r="A225" s="21" t="n"/>
+      <c r="B225" s="21" t="n"/>
+      <c r="C225" s="21" t="n"/>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E225" s="21" t="n"/>
       <c r="G225" s="21" t="n"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
-        </is>
-      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="inlineStr">
-        <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
-        </is>
-      </c>
+      <c r="L225" s="25" t="n"/>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B226" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C226" s="21" t="inlineStr">
-        <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
-        </is>
-      </c>
+      <c r="A226" s="21" t="n"/>
+      <c r="B226" s="21" t="n"/>
+      <c r="C226" s="21" t="n"/>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E226" s="21" t="n"/>
       <c r="G226" s="21" t="n"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
-        </is>
-      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="inlineStr">
-        <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
-        </is>
-      </c>
+      <c r="L226" s="25" t="n"/>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B227" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C227" s="21" t="inlineStr">
-        <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
-        </is>
-      </c>
+      <c r="A227" s="21" t="n"/>
+      <c r="B227" s="21" t="n"/>
+      <c r="C227" s="21" t="n"/>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E227" s="21" t="n"/>
       <c r="G227" s="21" t="n"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
-        </is>
-      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="inlineStr">
-        <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
-        </is>
-      </c>
+      <c r="L227" s="25" t="n"/>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B229" s="21" t="inlineStr">
-        <is>
-          <t>작업</t>
-        </is>
-      </c>
-      <c r="C229" s="21" t="inlineStr">
-        <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
-        </is>
-      </c>
+      <c r="A229" s="21" t="n"/>
+      <c r="B229" s="21" t="n"/>
+      <c r="C229" s="21" t="n"/>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E229" s="21" t="n"/>
       <c r="G229" s="21" t="n"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L229" s="25" t="n"/>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B230" s="21" t="inlineStr">
-        <is>
-          <t>개요</t>
-        </is>
-      </c>
-      <c r="C230" s="21" t="inlineStr">
-        <is>
-          <t>스토리지 계정으로의 보안 전송을 사용하도록 설정해야 함</t>
-        </is>
-      </c>
+      <c r="A230" s="21" t="n"/>
+      <c r="B230" s="21" t="n"/>
+      <c r="C230" s="21" t="n"/>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E230" s="21" t="n"/>
       <c r="G230" s="21" t="n"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L230" s="25" t="n"/>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B231" s="21" t="inlineStr">
-        <is>
-          <t>개요</t>
-        </is>
-      </c>
-      <c r="C231" s="21" t="inlineStr">
-        <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
-        </is>
-      </c>
+      <c r="A231" s="21" t="n"/>
+      <c r="B231" s="21" t="n"/>
+      <c r="C231" s="21" t="n"/>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E231" s="21" t="n"/>
       <c r="G231" s="21" t="n"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L231" s="25" t="n"/>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B232" s="21" t="inlineStr">
-        <is>
-          <t>권한 있는 액세스 보호Secure privileged access</t>
-        </is>
-      </c>
-      <c r="C232" s="21" t="inlineStr">
-        <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
-        </is>
-      </c>
+      <c r="A232" s="21" t="n"/>
+      <c r="B232" s="21" t="n"/>
+      <c r="C232" s="21" t="n"/>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E232" s="21" t="n"/>
       <c r="G232" s="21" t="n"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="inlineStr">
-        <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
-        </is>
-      </c>
+      <c r="L232" s="25" t="n"/>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
       <c r="P232" s="25" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B233" s="21" t="inlineStr">
-        <is>
-          <t>서비스 지원 프레임워크</t>
-        </is>
-      </c>
-      <c r="C233" s="21" t="inlineStr">
-        <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
-        </is>
-      </c>
+      <c r="A233" s="21" t="n"/>
+      <c r="B233" s="21" t="n"/>
+      <c r="C233" s="21" t="n"/>
       <c r="D233" s="21" t="n"/>
-      <c r="E233" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E233" s="21" t="n"/>
       <c r="G233" s="21" t="n"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
-      <c r="L233" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L233" s="25" t="n"/>
       <c r="M233" s="25" t="n"/>
       <c r="N233" s="25" t="n"/>
       <c r="O233" s="25" t="n"/>
       <c r="P233" s="25" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="B234" s="21" t="inlineStr">
-        <is>
-          <t>서비스 지원 프레임워크</t>
-        </is>
-      </c>
-      <c r="C234" s="21" t="inlineStr">
-        <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
-        </is>
-      </c>
+      <c r="A234" s="21" t="n"/>
+      <c r="B234" s="21" t="n"/>
+      <c r="C234" s="21" t="n"/>
       <c r="D234" s="21" t="n"/>
-      <c r="E234" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E234" s="21" t="n"/>
       <c r="G234" s="21" t="n"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
-      <c r="L234" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L234" s="25" t="n"/>
       <c r="M234" s="25" t="n"/>
       <c r="N234" s="25" t="n"/>
       <c r="O234" s="25" t="n"/>
       <c r="P234" s="25" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B235" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C235" s="21" t="inlineStr">
-        <is>
-          <t>Azure Landing Zone 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
-        </is>
-      </c>
+      <c r="A235" s="21" t="n"/>
+      <c r="B235" s="21" t="n"/>
+      <c r="C235" s="21" t="n"/>
       <c r="D235" s="21" t="n"/>
-      <c r="E235" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E235" s="21" t="n"/>
       <c r="G235" s="21" t="n"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
-      <c r="L235" s="25" t="inlineStr">
-        <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
-        </is>
-      </c>
+      <c r="L235" s="25" t="n"/>
       <c r="M235" s="25" t="n"/>
       <c r="N235" s="25" t="n"/>
       <c r="O235" s="25" t="n"/>
       <c r="P235" s="25" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B236" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C236" s="21" t="inlineStr">
-        <is>
-          <t>Azure 랜딩 존 플랫폼 팀을 위한 함수를 정의하는 것을 목표로 합니다.</t>
-        </is>
-      </c>
+      <c r="A236" s="21" t="n"/>
+      <c r="B236" s="21" t="n"/>
+      <c r="C236" s="21" t="n"/>
       <c r="D236" s="21" t="n"/>
-      <c r="E236" s="21" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E236" s="21" t="n"/>
       <c r="G236" s="21" t="n"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
-      <c r="L236" s="25" t="inlineStr">
-        <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
-        </is>
-      </c>
+      <c r="L236" s="25" t="n"/>
       <c r="M236" s="25" t="n"/>
       <c r="N236" s="25" t="n"/>
       <c r="O236" s="25" t="n"/>
       <c r="P236" s="25" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B237" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C237" s="21" t="inlineStr">
-        <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
-        </is>
-      </c>
+      <c r="A237" s="21" t="n"/>
+      <c r="B237" s="21" t="n"/>
+      <c r="C237" s="21" t="n"/>
       <c r="D237" s="21" t="n"/>
-      <c r="E237" s="21" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E237" s="21" t="n"/>
       <c r="G237" s="21" t="n"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
-      <c r="L237" s="25" t="inlineStr">
-        <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
-        </is>
-      </c>
+      <c r="L237" s="25" t="n"/>
       <c r="M237" s="25" t="n"/>
       <c r="N237" s="25" t="n"/>
       <c r="O237" s="25" t="n"/>
       <c r="P237" s="25" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B238" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C238" s="21" t="inlineStr">
-        <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
-        </is>
-      </c>
+      <c r="A238" s="21" t="n"/>
+      <c r="B238" s="21" t="n"/>
+      <c r="C238" s="21" t="n"/>
       <c r="D238" s="21" t="n"/>
-      <c r="E238" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E238" s="21" t="n"/>
       <c r="G238" s="21" t="n"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
-      <c r="L238" s="25" t="inlineStr">
-        <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
-        </is>
-      </c>
+      <c r="L238" s="25" t="n"/>
       <c r="M238" s="25" t="n"/>
       <c r="N238" s="25" t="n"/>
       <c r="O238" s="25" t="n"/>
       <c r="P238" s="25" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B239" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C239" s="21" t="inlineStr">
-        <is>
-          <t>빌드 프로세스의 일부로 IaC 및 애플리케이션 코드에 대한 단위 테스트를 포함합니다.</t>
-        </is>
-      </c>
+      <c r="A239" s="21" t="n"/>
+      <c r="B239" s="21" t="n"/>
+      <c r="C239" s="21" t="n"/>
       <c r="D239" s="21" t="n"/>
-      <c r="E239" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E239" s="21" t="n"/>
       <c r="G239" s="21" t="n"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
-      <c r="L239" s="25" t="inlineStr">
-        <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
-        </is>
-      </c>
+      <c r="L239" s="25" t="n"/>
       <c r="M239" s="25" t="n"/>
       <c r="N239" s="25" t="n"/>
       <c r="O239" s="25" t="n"/>
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B240" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C240" s="21" t="inlineStr">
-        <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
-        </is>
-      </c>
+      <c r="A240" s="21" t="n"/>
+      <c r="B240" s="21" t="n"/>
+      <c r="C240" s="21" t="n"/>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E240" s="21" t="n"/>
       <c r="G240" s="21" t="n"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="inlineStr">
-        <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
-        </is>
-      </c>
+      <c r="L240" s="25" t="n"/>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B241" s="21" t="inlineStr">
-        <is>
-          <t>DevOps 팀 토폴로지</t>
-        </is>
-      </c>
-      <c r="C241" s="21" t="inlineStr">
-        <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
-        </is>
-      </c>
+      <c r="A241" s="21" t="n"/>
+      <c r="B241" s="21" t="n"/>
+      <c r="C241" s="21" t="n"/>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E241" s="21" t="n"/>
       <c r="G241" s="21" t="n"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
-        </is>
-      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="inlineStr">
-        <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
-        </is>
-      </c>
+      <c r="L241" s="25" t="n"/>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B242" s="21" t="inlineStr">
-        <is>
-          <t>개발 라이프사이클</t>
-        </is>
-      </c>
-      <c r="C242" s="21" t="inlineStr">
-        <is>
-          <t>버전 제어 시스템이 애플리케이션 및 개발된 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
-        </is>
-      </c>
+      <c r="A242" s="21" t="n"/>
+      <c r="B242" s="21" t="n"/>
+      <c r="C242" s="21" t="n"/>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E242" s="21" t="n"/>
       <c r="G242" s="21" t="n"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="inlineStr">
-        <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
-        </is>
-      </c>
+      <c r="L242" s="25" t="n"/>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B243" s="21" t="inlineStr">
-        <is>
-          <t>개발 라이프사이클</t>
-        </is>
-      </c>
-      <c r="C243" s="21" t="inlineStr">
-        <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 하는 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
-        </is>
-      </c>
+      <c r="A243" s="21" t="n"/>
+      <c r="B243" s="21" t="n"/>
+      <c r="C243" s="21" t="n"/>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E243" s="21" t="n"/>
       <c r="G243" s="21" t="n"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="inlineStr">
-        <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
-        </is>
-      </c>
+      <c r="L243" s="25" t="n"/>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B244" s="21" t="inlineStr">
-        <is>
-          <t>개발 라이프사이클</t>
-        </is>
-      </c>
-      <c r="C244" s="21" t="inlineStr">
-        <is>
-          <t>분기에 병합된 코드 변경 내용을 계속 제어할 수 있도록 끌어오기 요청 전략을 채택합니다.</t>
-        </is>
-      </c>
+      <c r="A244" s="21" t="n"/>
+      <c r="B244" s="21" t="n"/>
+      <c r="C244" s="21" t="n"/>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E244" s="21" t="n"/>
       <c r="G244" s="21" t="n"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="inlineStr">
-        <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
-        </is>
-      </c>
+      <c r="L244" s="25" t="n"/>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B245" s="21" t="inlineStr">
-        <is>
-          <t>개발 전략</t>
-        </is>
-      </c>
-      <c r="C245" s="21" t="inlineStr">
-        <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 IaaS(Infrastructure as Code) 도구를 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점 모두에서.</t>
-        </is>
-      </c>
+      <c r="A245" s="21" t="n"/>
+      <c r="B245" s="21" t="n"/>
+      <c r="C245" s="21" t="n"/>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E245" s="21" t="n"/>
       <c r="G245" s="21" t="n"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="inlineStr">
-        <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
-        </is>
-      </c>
+      <c r="L245" s="25" t="n"/>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="C246" s="21" t="inlineStr">
-        <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
-        </is>
-      </c>
+      <c r="A246" s="21" t="n"/>
+      <c r="B246" s="21" t="n"/>
+      <c r="C246" s="21" t="n"/>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E246" s="21" t="n"/>
       <c r="G246" s="21" t="n"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L246" s="25" t="n"/>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
@@ -13209,7 +12261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13381,7 +12433,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13391,7 +12443,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -13403,7 +12455,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -13439,7 +12491,7 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -3366,13 +3366,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
+          <t>비용 관리를 위한 프로세스 적용</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3383,19 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>비용 관리를 위한 프로세스 적용</t>
+          <t>Windows Server의 AD인 경우 Indentity 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3433,19 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 Indentity 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
+          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3483,19 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>지역</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
+          <t>배포에 적합한 Azure 지역을 선택합니다. Azure는 여러 지역 및 지역에 걸쳐 글로벌 범위를 제공하는 글로벌 규모의 클라우드 플랫폼입니다. Azure 지역마다 특성, 액세스 및 가용성 모델, 비용, 용량 및 제공되는 서비스가 다르므로 모든 기준과 요구 사항을 고려하는 것이 중요합니다</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3556,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>지역</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway 및 Azure Front door를 사용하여 워크로드 스포크에서 배달 애플리케이션 콘텐츠를 보호하기 위한 계획을 개발합니다.  응용 프로그램 배달 검사 목록을 사용하여 권장 사항을 확인할 수 있습니다.</t>
+          <t>다중 지역 배포를 고려합니다. 고객 규모, 위치 및 사용자 존재 여부에 따라 여러 지역에서 운영하는 것이 서비스를 제공하고 더 가까운 곳에서 애플리케이션을 실행하는 일반적인 선택이 될 수 있습니다. 다중 지역 배포를 사용하는 것은 지리적 재해 복구 기능을 제공하고, 단일 지역 용량의 종속성을 제거하고, 일시적이고 지역화된 리소스 용량 제약 조건의 위험을 줄이는 데도 중요합니다</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,17 +3606,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>지역</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존 내에서 내부 연결(corp) 및 외부 연결 앱(온라인) 모두에 대해 앱 배달을 수행합니다.</t>
+          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3628,19 +3633,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>Application Gateway 및 Azure Front door를 사용하여 워크로드 스포크에서 배달 애플리케이션 콘텐츠를 보호하기 위한 계획을 개발합니다.  응용 프로그램 배달 검사 목록을 사용하여 권장 사항을 확인할 수 있습니다.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3683,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>랜딩 존 내에서 내부 연결(corp) 및 외부 연결 앱(온라인) 모두에 대해 앱 배달을 수행합니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,15 +3728,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3756,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3778,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,12 +3806,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3824,19 +3828,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
+          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,14 +3874,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,7 +3907,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3919,15 +3924,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3948,13 +3957,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3965,7 +3974,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3973,7 +3982,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,13 +4003,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4011,7 +4020,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4019,7 +4028,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4040,13 +4049,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4057,19 +4066,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4090,13 +4095,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4107,19 +4112,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4140,7 +4141,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4157,15 +4158,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4186,7 +4191,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,15 +4208,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4232,13 +4241,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4249,7 +4258,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4257,7 +4266,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4273,12 +4282,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4295,19 +4304,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4323,22 +4328,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 사용자 고유의 라우터에서 전체 범위의 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4349,19 +4350,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4399,7 +4396,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
@@ -4411,7 +4408,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,13 +4429,17 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 사용자 고유의 라우터에서 전체 범위의 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4449,15 +4450,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,13 +4483,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4495,15 +4500,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,13 +4533,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4541,19 +4550,15 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4574,13 +4579,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4591,19 +4596,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4624,7 +4625,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4641,7 +4642,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
@@ -4653,7 +4654,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4691,19 +4692,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4724,13 +4725,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4741,7 +4742,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4753,7 +4754,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4791,19 +4792,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4824,13 +4825,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4841,7 +4842,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
@@ -4853,7 +4854,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4874,7 +4875,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>환경 전체의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4891,7 +4892,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4903,7 +4904,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4924,7 +4925,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4941,7 +4942,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4953,7 +4954,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4974,13 +4975,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 도메인 컨트롤러로 두 개 이상 배포하는 경우 서로 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>환경 전체의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4991,15 +4992,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5015,18 +5020,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5037,19 +5042,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5065,18 +5070,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>AD DS를 실행하는 VM을 도메인 컨트롤러로 두 개 이상 배포하는 경우 서로 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5087,19 +5092,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5149,7 +5150,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5170,13 +5171,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5187,19 +5188,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5220,13 +5221,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5237,19 +5238,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5270,13 +5271,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,19 +5288,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5320,13 +5321,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5340,12 +5341,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I96" s="15" t="n"/>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5366,13 +5371,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5383,19 +5388,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5411,18 +5416,18 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5433,7 +5438,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5441,7 +5446,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5457,18 +5462,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,15 +5484,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5517,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5534,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5575,19 +5580,15 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,13 +5609,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5626,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5637,7 +5638,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5675,19 +5676,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,7 +5709,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5725,19 +5726,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,13 +5759,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5775,19 +5776,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5808,13 +5809,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,19 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5858,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5875,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5921,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5967,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5975,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,7 +6022,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6021,7 +6030,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6059,14 +6068,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6082,12 +6091,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6104,19 +6113,15 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6132,18 +6137,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6154,19 +6159,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6182,18 +6183,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6204,19 +6205,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6237,13 +6234,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6254,7 +6251,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6266,7 +6263,7 @@
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6309,14 +6306,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6332,18 +6329,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6354,14 +6351,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6377,18 +6379,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6399,15 +6401,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,12 +6429,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6445,14 +6451,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,13 +6484,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6490,19 +6501,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,13 +6530,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6540,19 +6547,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6573,7 +6576,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6588,17 +6591,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6669,7 +6672,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6686,19 +6689,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6714,12 +6717,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6734,21 +6737,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6764,12 +6763,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6786,14 +6785,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6809,18 +6813,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6831,14 +6835,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6859,7 +6868,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6876,19 +6885,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6909,7 +6918,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6926,14 +6935,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6954,13 +6963,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6971,14 +6980,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6999,7 +7008,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7016,14 +7025,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7044,7 +7058,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7061,14 +7075,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7089,7 +7103,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7106,14 +7120,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7134,13 +7148,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7151,14 +7165,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7169,23 +7183,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7196,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7214,17 +7228,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7241,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7259,23 +7273,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7286,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7314,13 +7328,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7338,7 +7352,7 @@
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7359,7 +7373,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7376,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7404,13 +7418,13 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7421,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7449,7 +7463,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7473,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7494,14 +7508,10 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7515,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7543,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7560,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7588,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7605,19 +7615,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7633,18 +7638,22 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7655,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7673,17 +7682,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7700,14 +7709,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7723,12 +7732,12 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7745,14 +7754,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7763,23 +7777,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7790,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7808,17 +7822,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7835,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7853,17 +7867,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7880,14 +7894,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7903,18 +7917,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7925,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7948,12 +7962,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7970,19 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7998,12 +8007,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8018,12 +8027,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8039,12 +8052,12 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8061,19 +8074,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8094,7 +8102,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8111,19 +8119,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8144,7 +8152,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8159,21 +8167,12 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H156" s="15" t="n"/>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8211,19 +8210,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8244,7 +8243,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8261,19 +8260,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8294,7 +8293,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8311,7 +8310,7 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8323,7 +8322,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8344,13 +8343,13 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8361,14 +8360,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8389,7 +8393,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8406,14 +8410,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8434,7 +8443,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8451,14 +8460,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8479,13 +8493,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8496,14 +8510,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8524,7 +8538,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8541,14 +8555,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8569,7 +8583,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8586,14 +8600,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8614,7 +8628,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8631,14 +8645,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8673,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,14 +8690,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8704,7 +8718,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8721,14 +8735,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8749,7 +8763,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8766,14 +8780,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8789,12 +8803,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8811,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8834,19 +8848,15 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -8860,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,12 +8893,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8905,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8928,12 +8938,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8950,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8973,15 +8983,19 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -8995,14 +9009,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9013,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9040,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9058,23 +9072,23 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9085,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9103,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9130,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9148,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9175,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9193,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9220,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9238,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9265,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9288,12 +9302,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9310,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9333,12 +9347,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9355,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,13 +9397,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9400,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9428,7 +9442,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9445,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9473,7 +9487,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9497,7 +9511,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9542,7 +9556,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9563,7 +9577,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9580,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9608,7 +9622,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9632,7 +9646,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9653,7 +9667,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9670,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9698,7 +9712,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9715,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9767,7 +9781,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9783,12 +9797,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9805,14 +9819,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9828,12 +9842,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9850,14 +9864,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9873,18 +9887,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9895,14 +9909,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9923,13 +9937,13 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9940,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9968,13 +9982,13 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9985,14 +9999,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10013,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10030,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10058,13 +10072,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10075,14 +10089,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10103,13 +10117,13 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10120,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10143,12 +10157,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10165,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10188,18 +10202,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10210,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10233,18 +10247,18 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10255,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10278,18 +10292,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10300,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10323,18 +10337,18 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10345,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10363,17 +10377,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10390,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10408,23 +10422,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10435,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10453,23 +10467,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10480,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10508,7 +10522,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10525,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10553,13 +10567,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10570,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10598,13 +10612,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10615,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10643,13 +10657,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10660,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10683,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10705,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10728,18 +10742,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10750,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10773,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10795,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10818,12 +10832,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10847,7 +10861,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10863,18 +10877,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10885,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10901,45 +10915,135 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="n"/>
-      <c r="B217" s="21" t="n"/>
-      <c r="C217" s="21" t="n"/>
+      <c r="A217" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B217" s="21" t="inlineStr">
+        <is>
+          <t>개발 수명 주기</t>
+        </is>
+      </c>
+      <c r="C217" s="21" t="inlineStr">
+        <is>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+        </is>
+      </c>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="n"/>
+      <c r="E217" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G217" s="21" t="n"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="n"/>
+      <c r="L217" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="n"/>
-      <c r="B218" s="21" t="n"/>
-      <c r="C218" s="21" t="n"/>
+      <c r="A218" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B218" s="21" t="inlineStr">
+        <is>
+          <t>개발 전략</t>
+        </is>
+      </c>
+      <c r="C218" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="n"/>
+      <c r="E218" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G218" s="21" t="n"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="n"/>
+      <c r="L218" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="n"/>
-      <c r="B219" s="21" t="n"/>
-      <c r="C219" s="21" t="n"/>
+      <c r="A219" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B219" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C219" s="21" t="inlineStr">
+        <is>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+        </is>
+      </c>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="n"/>
+      <c r="E219" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G219" s="21" t="n"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="n"/>
+      <c r="L219" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
@@ -12261,7 +12365,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>지역</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>배포에 적합한 Azure 지역을 선택합니다. Azure는 여러 지역 및 지역에 걸쳐 글로벌 범위를 제공하는 글로벌 규모의 클라우드 플랫폼입니다. Azure 지역마다 특성, 액세스 및 가용성 모델, 비용, 용량 및 제공되는 서비스가 다르므로 모든 기준과 요구 사항을 고려하는 것이 중요합니다</t>
+          <t>Sovereign Landing Zone의 경우 'landing zones' MG 바로 아래에 'confidential corp' 및 'confidential online' 관리 그룹이 있습니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3566,13 +3561,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>다중 지역 배포를 고려합니다. 고객 규모, 위치 및 사용자 존재 여부에 따라 여러 지역에서 운영하는 것이 서비스를 제공하고 더 가까운 곳에서 애플리케이션을 실행하는 일반적인 선택이 될 수 있습니다. 다중 지역 배포를 사용하는 것은 지리적 재해 복구 기능을 제공하고, 단일 지역 용량의 종속성을 제거하고, 일시적이고 지역화된 리소스 용량 제약 조건의 위험을 줄이는 데도 중요합니다</t>
+          <t>배포에 적합한 Azure 지역을 선택합니다. Azure는 여러 지역 및 지역에 걸쳐 글로벌 범위를 제공하는 글로벌 규모의 클라우드 플랫폼입니다. Azure 지역마다 특성, 액세스 및 가용성 모델, 비용, 용량 및 제공되는 서비스가 다르므로 모든 기준과 요구 사항을 고려하는 것이 중요합니다</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3583,7 +3578,7 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3595,7 +3590,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
+          <t>다중 지역 배포를 고려합니다. 고객 규모, 위치 및 사용자 존재 여부에 따라 여러 지역에서 운영하는 것이 서비스를 제공하고 더 가까운 곳에서 애플리케이션을 실행하는 일반적인 선택이 될 수 있습니다. 다중 지역 배포를 사용하는 것은 지리적 재해 복구 기능을 제공하고, 단일 지역 용량의 종속성을 제거하고, 일시적이고 지역화된 리소스 용량 제약 조건의 위험을 줄이는 데도 중요합니다</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3633,7 +3628,7 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3645,7 +3640,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3656,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>자원 조직</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>지역</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway 및 Azure Front door를 사용하여 워크로드 스포크에서 배달 애플리케이션 콘텐츠를 보호하기 위한 계획을 개발합니다.  응용 프로그램 배달 검사 목록을 사용하여 권장 사항을 확인할 수 있습니다.</t>
+          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3683,14 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존 내에서 내부 연결(corp) 및 외부 연결 앱(온라인) 모두에 대해 앱 배달을 수행합니다.</t>
+          <t>Application Gateway 및 Azure Front door를 사용하여 워크로드 스포크에서 배달 애플리케이션 콘텐츠를 보호하기 위한 계획을 개발합니다.  응용 프로그램 배달 검사 목록을 사용하여 권장 사항을 확인할 수 있습니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>랜딩 존 내에서 내부 연결(corp) 및 외부 연결 앱(온라인) 모두에 대해 앱 배달을 수행합니다.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3778,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3806,12 +3802,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3828,15 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3857,13 +3857,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,18 +3897,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3924,19 +3919,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3957,13 +3952,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3974,15 +3969,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4003,13 +4002,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4020,7 +4019,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4028,7 +4027,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4049,13 +4048,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4066,7 +4065,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4074,7 +4073,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4095,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4112,7 +4111,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4120,7 +4119,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4141,13 +4140,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4158,19 +4157,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4191,7 +4186,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4208,19 +4203,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4258,15 +4253,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4287,7 +4286,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4312,7 +4311,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,13 +4332,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4350,7 +4349,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4358,7 +4357,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4374,18 +4373,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4396,19 +4395,15 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4429,14 +4424,10 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 사용자 고유의 라우터에서 전체 범위의 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4450,7 +4441,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
@@ -4462,7 +4453,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4483,10 +4474,14 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 사용자 고유의 라우터에서 전체 범위의 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -4512,7 +4507,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4533,13 +4528,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4550,15 +4545,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4579,7 +4578,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4596,7 +4595,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4604,7 +4603,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4625,13 +4624,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4642,19 +4641,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4675,7 +4670,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4692,7 +4687,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
@@ -4704,7 +4699,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4725,7 +4720,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4742,7 +4737,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4754,7 +4749,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4775,7 +4770,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4792,19 +4787,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4825,13 +4820,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4842,19 +4837,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4892,7 +4887,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4904,7 +4899,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4942,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4954,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>환경 전체의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4992,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -5004,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5025,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5042,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5054,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5075,13 +5070,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 도메인 컨트롤러로 두 개 이상 배포하는 경우 서로 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5092,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5116,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>AD DS를 실행하는 VM을 도메인 컨트롤러로 두 개 이상 배포하는 경우 서로 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5138,19 +5137,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,18 +5161,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5188,19 +5183,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5238,19 +5229,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5271,7 +5258,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5288,19 +5275,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5321,13 +5308,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5338,19 +5325,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5371,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5388,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5421,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5438,15 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5467,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5484,7 +5475,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5496,7 +5487,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,12 +5503,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5534,15 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5553,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,7 +5575,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5588,7 +5583,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5604,12 +5599,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5626,19 +5621,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5659,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5676,19 +5671,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5709,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5726,19 +5717,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5759,13 +5746,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5776,19 +5763,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5809,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5826,19 +5813,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,13 +5846,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5876,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5896,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5976,15 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,15 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6051,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6068,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6113,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6121,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6159,7 +6159,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6167,7 +6167,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6205,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6213,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,19 +6251,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,18 +6274,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6301,19 +6296,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6329,18 +6319,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6351,19 +6341,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6384,13 +6369,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6401,7 +6386,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6413,7 +6398,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6434,7 +6419,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6456,14 +6441,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6479,18 +6464,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6501,15 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6525,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6547,15 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6571,12 +6564,12 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6593,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6622,13 +6619,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6639,19 +6636,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6672,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6689,19 +6682,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6737,17 +6726,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6768,7 +6757,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6785,19 +6774,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6818,7 +6807,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6835,19 +6824,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6863,12 +6852,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6883,21 +6872,17 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6913,12 +6898,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6935,14 +6920,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6958,18 +6948,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6980,14 +6970,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7008,7 +7003,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7025,19 +7020,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7058,7 +7053,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7075,14 +7070,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7103,13 +7098,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7120,14 +7115,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7148,7 +7143,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7165,14 +7160,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,13 +7283,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7300,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7318,23 +7318,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7345,14 +7345,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7363,17 +7363,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7390,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,23 +7408,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7435,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7463,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7487,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7570,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7622,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,14 +7643,10 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7664,14 +7660,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,13 +7688,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7709,14 +7705,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,7 +7733,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7754,19 +7750,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,18 +7773,22 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7804,14 +7799,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7822,17 +7817,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7849,14 +7844,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,12 +7867,12 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7894,14 +7889,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7912,23 +7912,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7939,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7957,17 +7957,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7984,14 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,17 +8002,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Sovereign Landing Zone의 경우 'Sovereign Control 목표 대 정책 매핑'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8027,16 +8027,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8047,23 +8043,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8074,14 +8070,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8092,17 +8088,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8119,19 +8115,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8142,17 +8133,17 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8167,12 +8158,16 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,18 +8183,18 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8210,19 +8205,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8238,12 +8228,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8260,19 +8250,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8288,12 +8273,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8310,19 +8295,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8338,12 +8318,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8360,19 +8340,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8393,7 +8368,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8410,19 +8385,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8443,7 +8418,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8458,21 +8433,12 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H162" s="15" t="n"/>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8493,13 +8459,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8510,14 +8476,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8538,7 +8509,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8555,14 +8526,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8583,7 +8559,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8600,14 +8576,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8628,7 +8609,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8645,14 +8626,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8673,7 +8659,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8690,14 +8676,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8718,7 +8709,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8735,14 +8726,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8763,13 +8759,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8780,14 +8776,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8804,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,14 +8821,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,7 +8849,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8866,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8894,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8911,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,12 +8934,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8956,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,19 +8979,15 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9009,14 +9001,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9032,12 +9024,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9054,14 +9046,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,12 +9069,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9099,14 +9091,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9122,12 +9114,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9136,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9154,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9181,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,23 +9199,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9234,14 +9226,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,20 +9244,24 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9279,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9293,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9320,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9338,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,14 +9365,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,23 +9383,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9414,14 +9410,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,23 +9428,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9459,14 +9455,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9473,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9500,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9522,17 +9518,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9545,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9572,12 +9568,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9594,14 +9590,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9617,12 +9613,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9635,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,13 +9663,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9684,14 +9680,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9712,7 +9708,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9729,14 +9725,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,7 +9753,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9781,7 +9777,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9798,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9815,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9843,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9867,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9888,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9912,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,12 +9928,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9954,14 +9950,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,12 +9973,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9999,14 +9995,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,18 +10018,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10044,14 +10040,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,18 +10063,18 @@
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10089,14 +10085,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,18 +10108,18 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10134,14 +10130,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,18 +10153,18 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10179,14 +10175,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10202,12 +10198,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10224,14 +10220,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10248,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10265,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,18 +10288,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10314,14 +10310,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,12 +10333,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10355,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,12 +10378,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10404,14 +10400,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,18 +10423,18 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10449,14 +10445,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,18 +10468,18 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10494,14 +10490,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10512,23 +10508,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10539,14 +10535,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10557,23 +10553,23 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10580,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10602,23 +10598,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10629,14 +10625,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,23 +10643,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10674,14 +10670,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,23 +10688,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10719,14 +10715,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,17 +10733,17 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10764,14 +10760,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,23 +10778,23 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10809,14 +10805,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,23 +10823,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10854,14 +10850,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10872,23 +10868,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10895,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10922,18 +10918,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10944,14 +10940,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,18 +10963,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10985,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,18 +11008,18 @@
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11030,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11050,135 +11046,405 @@
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="n"/>
-      <c r="B220" s="21" t="n"/>
-      <c r="C220" s="21" t="n"/>
+      <c r="A220" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B220" s="21" t="inlineStr">
+        <is>
+          <t>DevOps 팀 토폴로지</t>
+        </is>
+      </c>
+      <c r="C220" s="21" t="inlineStr">
+        <is>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+        </is>
+      </c>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="n"/>
+      <c r="E220" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G220" s="21" t="n"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="n"/>
+      <c r="L220" s="25" t="inlineStr">
+        <is>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+        </is>
+      </c>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="n"/>
-      <c r="B221" s="21" t="n"/>
-      <c r="C221" s="21" t="n"/>
+      <c r="A221" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B221" s="21" t="inlineStr">
+        <is>
+          <t>DevOps 팀 토폴로지</t>
+        </is>
+      </c>
+      <c r="C221" s="21" t="inlineStr">
+        <is>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+        </is>
+      </c>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="n"/>
+      <c r="E221" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G221" s="21" t="n"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="n"/>
+      <c r="L221" s="25" t="inlineStr">
+        <is>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+        </is>
+      </c>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="n"/>
-      <c r="B222" s="21" t="n"/>
-      <c r="C222" s="21" t="n"/>
+      <c r="A222" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B222" s="21" t="inlineStr">
+        <is>
+          <t>DevOps 팀 토폴로지</t>
+        </is>
+      </c>
+      <c r="C222" s="21" t="inlineStr">
+        <is>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+        </is>
+      </c>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="n"/>
+      <c r="E222" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G222" s="21" t="n"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="n"/>
+      <c r="L222" s="25" t="inlineStr">
+        <is>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+        </is>
+      </c>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="n"/>
-      <c r="B223" s="21" t="n"/>
-      <c r="C223" s="21" t="n"/>
+      <c r="A223" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B223" s="21" t="inlineStr">
+        <is>
+          <t>DevOps 팀 토폴로지</t>
+        </is>
+      </c>
+      <c r="C223" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+        </is>
+      </c>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="n"/>
+      <c r="E223" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G223" s="21" t="n"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+        </is>
+      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="n"/>
+      <c r="L223" s="25" t="inlineStr">
+        <is>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+        </is>
+      </c>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="n"/>
-      <c r="B224" s="21" t="n"/>
-      <c r="C224" s="21" t="n"/>
+      <c r="A224" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B224" s="21" t="inlineStr">
+        <is>
+          <t>개발 수명 주기</t>
+        </is>
+      </c>
+      <c r="C224" s="21" t="inlineStr">
+        <is>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+        </is>
+      </c>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="n"/>
+      <c r="E224" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G224" s="21" t="n"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="n"/>
+      <c r="L224" s="25" t="inlineStr">
+        <is>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+        </is>
+      </c>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="n"/>
-      <c r="B225" s="21" t="n"/>
-      <c r="C225" s="21" t="n"/>
+      <c r="A225" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B225" s="21" t="inlineStr">
+        <is>
+          <t>개발 수명 주기</t>
+        </is>
+      </c>
+      <c r="C225" s="21" t="inlineStr">
+        <is>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+        </is>
+      </c>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="n"/>
+      <c r="E225" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G225" s="21" t="n"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="n"/>
+      <c r="L225" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="n"/>
-      <c r="B226" s="21" t="n"/>
-      <c r="C226" s="21" t="n"/>
+      <c r="A226" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B226" s="21" t="inlineStr">
+        <is>
+          <t>개발 수명 주기</t>
+        </is>
+      </c>
+      <c r="C226" s="21" t="inlineStr">
+        <is>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+        </is>
+      </c>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="n"/>
+      <c r="E226" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G226" s="21" t="n"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="n"/>
+      <c r="L226" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="n"/>
-      <c r="B227" s="21" t="n"/>
-      <c r="C227" s="21" t="n"/>
+      <c r="A227" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B227" s="21" t="inlineStr">
+        <is>
+          <t>개발 전략</t>
+        </is>
+      </c>
+      <c r="C227" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="n"/>
+      <c r="E227" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G227" s="21" t="n"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="n"/>
+      <c r="L227" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12365,7 +12631,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>AADDS(Azure Active Directory Domains Services)를 사용 중인 경우 이 서비스는 하나의 구독에만 프로젝션할 수 있으므로 주 지역 내에 AADDS를 배포합니다</t>
+          <t>Windows Server에 Active Directory를 배포할 때 가용성 영역이 있는 위치를 사용하고 이러한 영역에 두 개 이상의 VM을 배포합니다. 사용할 수 없는 경우 가용성 집합에 배포합니다</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,7 +2413,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Windows 서버의 AD를 사용 중인 경우 Azure의 리소스가 올바른 도메인 컨트롤러를 사용하고 있나요?</t>
+          <t>도메인 컨트롤러를 사용하는 경우 리소스가 올바른 도메인 컨트롤러를 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크를 사용하여 ID(ADDS) 네트워크 구분을 구성하고 허브로 다시 피어링합니다. 응용 프로그램 랜딩 존(레거시) 내에서 인증을 제공합니다.</t>
+          <t>가상 네트워크를 사용하여 ID 네트워크 구분을 구성하고 허브로 다시 피어링합니다. 응용 프로그램 랜딩 존(레거시) 내에서 인증을 제공합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 Indentity 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
+          <t>도메인 컨트롤러와 같은 ID 서비스에 서버를 사용할 경우 ID 관리 그룹에 전용 ID 구독을 설정하여 이러한 서비스를 호스팅합니다</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>AD DS를 실행하는 VM을 도메인 컨트롤러로 두 개 이상 배포하는 경우 서로 다른 가용성 영역에 추가합니다. 지역에서 사용할 수 없는 경우 가용성 집합에 배포합니다.</t>
+          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5137,7 +5137,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
+          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5191,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,13 +5262,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,7 +5291,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,13 +5312,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,19 +5379,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,13 +5412,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5425,7 +5429,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5437,7 +5441,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,7 +5462,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5512,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,15 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5599,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5621,19 +5625,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,7 +5671,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5679,7 +5679,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,15 +5717,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5746,13 +5750,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5763,7 +5767,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5775,7 +5779,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,7 +5829,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5846,13 +5850,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5867,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5896,13 +5900,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,7 +5917,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5925,7 +5929,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5968,14 +5972,14 @@
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6067,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6112,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6120,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6167,7 +6166,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6204,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6212,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,14 +6250,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6296,14 +6295,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6319,12 +6318,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6341,14 +6340,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6369,13 +6373,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6386,19 +6390,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6441,14 +6445,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,7 +6473,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6491,14 +6495,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6548,7 +6552,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,19 +6590,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,7 +6636,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="I123" s="15" t="n"/>
@@ -6644,7 +6644,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6682,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6690,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6728,15 +6728,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6774,19 +6778,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6822,11 +6826,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6836,7 +6836,7 @@
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6872,7 +6872,11 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6882,7 +6886,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6925,14 +6929,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6948,12 +6952,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6970,19 +6974,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7003,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7020,19 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7053,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7077,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7098,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7116,13 +7115,18 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7160,19 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7209,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7254,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,7 +7282,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7300,14 +7299,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7328,7 +7327,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7345,14 +7344,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7373,13 +7372,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7390,14 +7389,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,17 +7407,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7435,14 +7434,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7462,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7480,14 +7479,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7524,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7577,7 +7576,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7621,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,13 +7642,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7660,14 +7659,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7688,13 +7687,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7705,14 +7704,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7733,10 +7732,14 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E147" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7750,14 +7753,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7778,14 +7781,10 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7799,14 +7798,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7844,14 +7843,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7889,19 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7939,14 +7938,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>Sovereign Landing Zone의 경우 'Sovereign Control 목표 대 정책 매핑'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7982,16 +7981,12 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
-        </is>
-      </c>
+      <c r="H152" s="15" t="n"/>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8007,18 +8002,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 'Sovereign Control 목표 대 정책 매핑'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8027,12 +8022,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8043,23 +8042,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8070,14 +8069,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8088,17 +8087,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8115,14 +8114,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8133,23 +8132,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8160,14 +8159,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,13 +8187,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8205,14 +8204,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8228,12 +8227,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8250,14 +8249,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8295,14 +8294,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8318,12 +8317,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8340,14 +8339,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8383,21 +8387,12 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H161" s="15" t="n"/>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8433,12 +8428,21 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="n"/>
+      <c r="H162" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8459,7 +8463,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8476,19 +8480,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8526,19 +8530,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8576,19 +8580,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8609,7 +8613,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8626,19 +8630,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,19 +8680,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8709,13 +8713,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8726,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8759,13 +8758,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8776,14 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8821,14 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8866,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8894,7 +8893,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8911,14 +8910,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8939,7 +8938,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8956,14 +8955,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9001,14 +9000,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9046,14 +9045,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9091,14 +9090,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9136,14 +9135,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9159,12 +9158,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9181,14 +9180,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9209,10 +9208,14 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9226,14 +9229,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9249,19 +9252,15 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9275,14 +9274,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,7 +9302,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9320,14 +9319,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9365,14 +9364,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,23 +9382,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9410,14 +9409,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9455,14 +9454,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9483,13 +9482,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9500,14 +9499,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,17 +9517,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9545,14 +9544,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9573,7 +9572,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9590,14 +9589,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,18 +9612,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9635,14 +9634,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9663,13 +9662,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9680,14 +9679,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9708,7 +9707,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9725,14 +9724,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9777,7 +9776,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9798,7 +9797,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9822,7 +9821,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9867,7 +9866,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9912,7 +9911,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9950,14 +9949,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9995,14 +9994,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10023,7 +10022,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10040,14 +10039,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10068,7 +10067,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10085,14 +10084,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10113,7 +10112,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10137,7 +10136,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10158,7 +10157,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10175,14 +10174,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,12 +10197,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10220,14 +10219,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10265,14 +10264,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10293,13 +10292,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10310,14 +10309,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10338,7 +10337,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10355,14 +10354,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10400,14 +10399,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10445,14 +10444,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10473,13 +10472,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10490,14 +10489,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10535,14 +10534,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10563,7 +10562,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10580,14 +10579,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10608,7 +10607,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10625,14 +10624,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10648,18 +10647,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10670,14 +10669,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10698,7 +10697,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10715,14 +10714,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10738,12 +10737,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10760,14 +10759,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10783,18 +10782,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10805,14 +10804,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10833,7 +10832,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10857,7 +10856,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10868,23 +10867,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>플랫폼 자동화 및 DevOps</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10895,14 +10894,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10923,13 +10922,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10940,14 +10939,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -10992,7 +10991,7 @@
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11013,13 +11012,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11030,14 +11029,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11058,13 +11057,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11075,14 +11074,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11103,13 +11102,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11127,7 +11126,7 @@
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11148,13 +11147,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11165,14 +11164,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11188,18 +11187,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11210,14 +11209,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11238,13 +11237,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11255,14 +11254,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11283,13 +11282,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11307,7 +11306,7 @@
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11323,18 +11322,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>개발 전략</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11345,14 +11344,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11368,12 +11367,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11390,14 +11389,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11406,45 +11405,15 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>플랫폼 자동화 및 DevOps</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12631,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>AADDS가 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
+          <t>Entra Domain Services를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4870,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4887,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5049,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5087,7 +5087,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,13 +5170,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
+          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5195,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,19 +5233,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5279,19 +5279,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5312,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5341,7 +5337,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5362,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5379,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5412,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5429,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5462,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,13 +5508,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5532,12 +5528,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I100" s="15" t="n"/>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5603,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5625,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5633,7 +5633,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5649,18 +5649,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5671,15 +5671,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5704,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,19 +5721,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,19 +5767,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5800,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5817,7 +5813,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5829,7 +5825,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5850,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5867,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5900,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5917,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5967,19 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +5996,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,19 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6067,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6112,15 +6113,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6158,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6166,7 +6171,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6204,7 +6209,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6212,7 +6217,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6250,14 +6255,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6295,14 +6300,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6318,12 +6323,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6340,19 +6345,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6368,18 +6368,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6390,19 +6390,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,13 +6419,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6440,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,7 +6469,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6495,14 +6491,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,7 +6519,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6545,14 +6541,14 @@
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6568,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6590,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,15 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6669,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6686,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6694,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,13 +6715,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6728,19 +6732,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,19 +6778,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6826,17 +6821,21 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6856,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6874,7 +6873,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6886,7 +6885,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6922,21 +6921,17 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,12 +6947,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6974,19 +6969,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,12 +6997,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7024,14 +7019,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,14 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7115,18 +7120,13 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7147,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,14 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7209,14 +7209,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7237,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7254,14 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7282,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7299,14 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7327,7 +7332,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7344,14 +7349,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,13 +7377,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7389,14 +7394,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7407,23 +7412,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7434,14 +7439,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7452,23 +7457,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7479,14 +7484,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7507,13 +7512,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7531,7 +7536,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,7 +7557,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7569,14 +7574,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7621,7 +7626,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,13 +7647,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7659,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7711,7 +7716,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7732,17 +7737,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7753,14 +7754,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7781,7 +7782,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7805,7 +7806,7 @@
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7826,10 +7827,14 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7843,19 +7848,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7893,14 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,14 +7938,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 'Sovereign Control 목표 대 정책 매핑'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7981,12 +7986,16 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,18 +8011,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8024,14 +8033,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8042,17 +8051,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>Sovereign Landing Zone의 경우 'Sovereign Control 목표 대 정책 매핑'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8067,16 +8076,12 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
-        </is>
-      </c>
+      <c r="H154" s="15" t="n"/>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,13 +8102,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8114,14 +8119,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8132,23 +8137,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8159,14 +8164,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8177,17 +8182,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8204,14 +8209,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,18 +8232,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8249,14 +8254,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8272,12 +8277,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8294,14 +8299,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8322,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8344,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8387,12 +8387,16 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="n"/>
+      <c r="H161" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8430,19 +8434,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>landing zone 존이 문서화되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8478,21 +8482,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8513,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8530,19 +8525,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8563,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8580,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8630,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8680,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8713,13 +8708,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8730,14 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8803,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8865,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8893,7 +8898,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8910,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,7 +8943,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8955,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,7 +8988,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9000,14 +9005,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9045,14 +9050,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9090,14 +9095,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,7 +9123,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9135,14 +9140,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9158,12 +9163,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9180,14 +9185,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9203,19 +9208,15 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9229,14 +9230,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,12 +9253,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9274,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,15 +9298,19 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9319,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9364,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9382,23 +9387,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9409,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9427,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9454,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,13 +9487,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9499,14 +9504,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9517,23 +9522,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9544,14 +9549,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9562,17 +9567,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9589,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,18 +9617,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9634,14 +9639,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9657,12 +9662,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9679,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,13 +9712,13 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9724,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9752,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9769,14 +9774,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9797,7 +9802,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9821,7 +9826,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9866,7 +9871,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9911,7 +9916,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9949,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,7 +9982,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10001,7 +10006,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10039,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10091,7 +10096,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10129,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,7 +10162,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10174,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10197,12 +10202,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10219,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10242,12 +10247,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10264,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,13 +10297,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10309,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,13 +10342,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10354,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,7 +10387,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10399,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,7 +10432,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10444,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,13 +10477,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10489,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10517,13 +10522,13 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10534,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10562,7 +10567,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10579,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10607,7 +10612,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10624,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,18 +10652,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10669,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10714,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,12 +10742,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10759,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10804,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,18 +10832,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10849,14 +10854,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10867,23 +10872,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10894,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10912,23 +10917,23 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10939,14 +10944,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,13 +10972,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10984,14 +10989,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,13 +11017,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11029,14 +11034,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,13 +11062,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11074,14 +11079,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11102,7 +11107,7 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11119,14 +11124,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11147,13 +11152,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11164,14 +11169,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11187,12 +11192,12 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11209,14 +11214,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11232,12 +11237,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11254,14 +11259,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,13 +11287,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11299,14 +11304,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11322,18 +11327,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11344,14 +11349,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11367,18 +11372,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11389,14 +11394,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11405,30 +11410,90 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>개발 전략</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="n"/>
-      <c r="B229" s="21" t="n"/>
-      <c r="C229" s="21" t="n"/>
+      <c r="A229" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B229" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C229" s="21" t="inlineStr">
+        <is>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+        </is>
+      </c>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="n"/>
+      <c r="E229" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G229" s="21" t="n"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="n"/>
+      <c r="L229" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
@@ -12600,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM을 배포할 때 고가용성/재해 복구를 위한 스테이징 서버를 사용하는 것이 좋습니다</t>
+          <t>Microsoft Entra Connect를 배포할 때 고가용성/재해 복구를 위해 스테이징 서버를 활용합니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 운영, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 RBAC 역할을 사용하여 ALZ에서 세분화된 액세스를 제공합니다. 이러한 역할을 비즈니스 내의 팀과 책임에 맞게 조정하세요.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체품으로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에 대해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간에 전송해야 하는 경우 Azure Route Server를 사용합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 사용자 고유의 라우터에서 전체 범위의 BGP 특성을 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 컨트롤 플레인 트래픽을 차단하는 0.0.0.0/0 경로 또는 NSG 규칙).</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>VNet 흐름 로그를 사용하도록 설정하고 Traffic Analytics에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽이 Azure에 유지됨' 원칙에 따라</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN, 상태 및 주요 메트릭의 엔드투엔드 토폴로지를 모니터링합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="D149" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 사용할 수 있습니다.</t>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
         </is>
       </c>
       <c r="E149" s="21" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 'Sovereign Control 목표 대 정책 매핑'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
+          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 따라 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Automation의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t xml:space="preserve">Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,12 +8675,12 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t xml:space="preserve">Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8725,19 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8825,14 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8870,14 +8875,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8903,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8920,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8943,7 +8948,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8965,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8988,7 +8993,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9005,14 +9010,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9033,7 +9038,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9050,14 +9055,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9078,7 +9083,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9095,14 +9100,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9123,7 +9128,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9140,14 +9145,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9168,7 +9173,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9185,14 +9190,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9213,7 +9218,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>연결된 Log Analytics 작업 영역 및 자동화 계정에 대해 지원되는 지역 고려</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9230,14 +9235,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,12 +9258,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9275,14 +9280,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,14 +9308,10 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9324,14 +9325,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,15 +9348,19 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9369,14 +9374,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9397,7 +9402,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9414,14 +9419,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9442,7 +9447,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,14 +9464,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역의 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9509,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,7 +9537,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9554,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9577,13 +9582,13 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9594,14 +9599,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,17 +9617,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9644,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9684,14 +9689,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,18 +9712,18 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9729,14 +9734,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,13 +9762,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9774,14 +9779,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9807,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9824,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9876,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9921,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9937,7 +9942,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9961,7 +9966,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9982,7 +9987,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10006,7 +10011,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10027,7 +10032,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10044,14 +10049,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10072,7 +10077,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10089,14 +10094,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10134,14 +10139,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10179,14 +10184,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10207,7 +10212,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10231,7 +10236,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10257,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10274,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,12 +10297,12 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10314,14 +10319,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,7 +10347,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10364,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,13 +10392,13 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10404,14 +10409,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10432,7 +10437,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10449,14 +10454,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10477,7 +10482,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10494,14 +10499,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10522,7 +10527,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10539,14 +10544,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10567,13 +10572,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10589,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10612,7 +10617,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10629,14 +10634,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10657,7 +10662,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10674,14 +10679,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10702,7 +10707,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10719,14 +10724,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10742,18 +10747,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10764,14 +10769,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,7 +10797,7 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너 및 해당 콘텐츠를 복구합니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10809,14 +10814,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10832,12 +10837,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10854,14 +10859,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10877,18 +10882,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10904,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,7 +10932,7 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10951,7 +10956,7 @@
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10962,23 +10967,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10994,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11017,13 +11022,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11039,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11062,7 +11067,7 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11086,7 +11091,7 @@
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11107,13 +11112,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11124,14 +11129,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11152,13 +11157,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11169,14 +11174,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11197,13 +11202,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11221,7 +11226,7 @@
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11242,13 +11247,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11259,14 +11264,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,18 +11287,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11304,14 +11309,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,13 +11337,13 @@
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11349,14 +11354,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11377,13 +11382,13 @@
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11401,7 +11406,7 @@
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11417,18 +11422,18 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11439,14 +11444,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11462,12 +11467,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>개발 전략</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11484,14 +11489,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11500,15 +11505,45 @@
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="n"/>
-      <c r="B230" s="21" t="n"/>
-      <c r="C230" s="21" t="n"/>
+      <c r="A230" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B230" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C230" s="21" t="inlineStr">
+        <is>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+        </is>
+      </c>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="n"/>
+      <c r="E230" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G230" s="21" t="n"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="n"/>
+      <c r="L230" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
@@ -12665,7 +12700,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F231" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -7047,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7069,19 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7119,14 +7119,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7152,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7171,7 +7176,7 @@
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,13 +7197,13 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7210,18 +7215,13 @@
       <c r="H135" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7259,14 +7259,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7287,7 +7292,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7309,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7332,7 +7337,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,14 +7354,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7377,7 +7382,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7394,14 +7399,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7439,14 +7444,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7467,13 +7472,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7484,14 +7489,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7502,17 +7507,17 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7529,14 +7534,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7557,13 +7562,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7574,14 +7579,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7602,7 +7607,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7619,14 +7624,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7647,7 +7652,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7671,7 +7676,7 @@
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,7 +7697,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7716,7 +7721,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,13 +7742,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7754,14 +7759,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,13 +7787,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7799,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,14 +7832,10 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7848,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,10 +7877,14 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
-        </is>
-      </c>
-      <c r="D150" s="21" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D150" s="21" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E150" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -7893,14 +7898,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7926,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,19 +7943,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7988,14 +7988,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8076,12 +8081,16 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,18 +8106,18 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8117,16 +8126,12 @@
         </is>
       </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
+      <c r="H155" s="15" t="n"/>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8137,23 +8142,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>확장성</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8164,14 +8169,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8182,17 +8187,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>클라우드 투자 최적화</t>
+          <t>확장성</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8209,14 +8214,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,23 +8232,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>클라우드 투자 최적화</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>'실제' 및 '예측' 예산 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8254,14 +8259,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8282,13 +8287,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8299,14 +8304,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8322,12 +8327,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8344,14 +8349,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8372,7 +8377,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>쌍을 이루는 지역이 있는 BCDR에 대해 Azure에서 지역 간 복제 고려</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,14 +8394,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8412,12 +8417,12 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8434,19 +8439,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>landing zone 존이 문서화되어 있는지 확인합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8482,12 +8482,21 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="n"/>
+      <c r="H163" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8508,7 +8517,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>landing zone 존이 문서화되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8523,21 +8532,12 @@
         </is>
       </c>
       <c r="G164" s="21" t="n"/>
-      <c r="H164" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H164" s="15" t="n"/>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8575,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8625,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
+          <t xml:space="preserve">Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8737,7 +8737,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8753,12 +8753,12 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t xml:space="preserve">Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,19 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8858,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8875,14 +8875,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8903,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포하고 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용하기 위한 적절한 가드레일을 제공합니다.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8920,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8948,7 +8953,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8965,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8993,7 +8998,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>경고 또는 문제를 실행할 수 있도록 Azure Service Health 플랫폼의 일부로 경고 및 작업 그룹을 포함합니다.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9038,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9055,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9083,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9105,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9128,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9150,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9173,7 +9178,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내에서 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9190,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9218,7 +9223,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9235,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9263,7 +9268,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9280,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,12 +9308,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9330,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,19 +9353,15 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>운영 규정 준수</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>랜딩 존의 플랫폼 구성 요소에 대한 모니터링을 설정하는 AMBA는 사용할 수 있는 프레임워크 솔루션이며 Azure Policy를 사용하여 경고의 크기를 조정하는 쉬운 방법을 제공합니다</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9374,14 +9375,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9397,12 +9403,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9419,14 +9425,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9442,15 +9448,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>보호 및 복구</t>
+          <t>운영 규정 준수</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -9464,14 +9474,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9492,7 +9502,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,14 +9519,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9527,23 +9537,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9554,14 +9564,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9572,23 +9582,23 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">경영 </t>
+          <t>경영</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>내결함성</t>
+          <t>보호 및 복구</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9599,14 +9609,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9627,13 +9637,13 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9644,14 +9654,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9662,23 +9672,23 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9689,14 +9699,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,17 +9717,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t xml:space="preserve">경영 </t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>출입 통제</t>
+          <t>내결함성</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9734,14 +9744,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,18 +9767,18 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9779,14 +9789,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,12 +9812,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>암호화 및 키</t>
+          <t>출입 통제</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 대한 액세스에 대한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9824,14 +9834,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9852,13 +9862,13 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9869,14 +9879,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9897,7 +9907,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9914,14 +9924,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9942,7 +9952,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9966,7 +9976,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9987,7 +9997,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10011,7 +10021,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10032,7 +10042,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10056,7 +10066,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10077,7 +10087,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10094,14 +10104,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10122,7 +10132,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10146,7 +10156,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10167,7 +10177,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10184,14 +10194,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10212,7 +10222,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10236,7 +10246,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10257,7 +10267,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10274,14 +10284,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10302,7 +10312,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10319,14 +10329,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,12 +10352,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10364,14 +10374,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,12 +10397,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>암호화 및 키</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10409,14 +10419,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10437,13 +10447,13 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10454,14 +10464,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10482,13 +10492,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10499,14 +10509,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10527,7 +10537,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10544,14 +10554,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10572,7 +10582,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10589,14 +10599,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10617,13 +10627,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10634,14 +10644,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10662,13 +10672,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10679,14 +10689,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10707,7 +10717,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10724,14 +10734,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10752,7 +10762,7 @@
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10769,14 +10779,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,18 +10802,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10814,14 +10824,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10837,18 +10847,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>개요</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10859,14 +10869,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10882,12 +10892,12 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>권한 있는 액세스 보호</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
@@ -10904,14 +10914,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,18 +10937,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>개요</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10949,14 +10959,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10972,18 +10982,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>서비스 지원 프레임워크</t>
+          <t>권한 있는 액세스 보호</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
+          <t>Azure 관리 작업에 대한 권한 있는 관리자 계정을 분리합니다.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10994,14 +11004,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,23 +11022,23 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11039,14 +11049,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,23 +11067,23 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>플랫폼 자동화 및 DevOps</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>DevOps 팀 토폴로지</t>
+          <t>서비스 지원 프레임워크</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청을 이행하는 방법 계획</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11084,14 +11094,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11112,13 +11122,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
+          <t>Azure 랜딩 존 아키텍처를 빌드, 관리 및 유지 관리할 수 있는 교차 기능 DevOps 플랫폼 팀이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11129,14 +11139,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11157,13 +11167,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
+          <t>Azure 랜딩 존 플랫폼 팀의 함수를 정의하는 것을 목표로 합니다.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11174,14 +11184,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11202,13 +11212,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
+          <t>애플리케이션 워크로드 팀이 자급자족하고 DevOps 플랫폼 팀 지원이 필요하지 않도록 기능을 정의하는 것을 목표로 합니다. 사용자 지정 RBAC 역할을 사용하여 이 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11219,14 +11229,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11247,7 +11257,7 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>CI/CD 파이프라인을 사용하여 IaC 아티팩트를 배포하고 배포 및 Azure 환경의 품질을 보장합니다.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11264,14 +11274,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11292,13 +11302,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
+          <t>IaC 및 애플리케이션 코드에 대한 단위 테스트를 빌드 프로세스의 일부로 포함합니다.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11309,14 +11319,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,12 +11342,12 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
@@ -11354,14 +11364,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11377,12 +11387,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>개발 수명 주기</t>
+          <t>DevOps 팀 토폴로지</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
+          <t>애플리케이션 및 워크로드를 위한 File &gt; New &gt; Landing Zone에 대한 자동화를 구현합니다.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11399,14 +11409,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11427,13 +11437,13 @@
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
+          <t>버전 제어 시스템이 개발된 애플리케이션 및 IaC의 소스 코드에 사용되는지 확인합니다. Microsoft는 Git을 권장합니다.</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11444,14 +11454,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11467,18 +11477,18 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>개발 전략</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+          <t>팀이 더 잘 협업하고 IaC 및 애플리케이션 코드의 버전 제어를 효율적으로 관리할 수 있도록 분기 전략을 따릅니다. Github Flow와 같은 옵션을 검토합니다.</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11489,14 +11499,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11512,18 +11522,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>개발 수명 주기</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+          <t>분기에 병합된 코드 변경 내용을 제어하는 데 도움이 되는 끌어오기 요청 전략을 채택합니다.</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11534,14 +11544,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11550,30 +11560,90 @@
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="n"/>
-      <c r="B231" s="21" t="n"/>
-      <c r="C231" s="21" t="n"/>
+      <c r="A231" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B231" s="21" t="inlineStr">
+        <is>
+          <t>개발 전략</t>
+        </is>
+      </c>
+      <c r="C231" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep, ARM 템플릿 또는 Terraform과 같은 선언적 인프라를 코드 도구로 활용하여 Azure 랜딩 존 아키텍처를 빌드하고 유지 관리합니다. 플랫폼 및 응용 프로그램 워크로드 관점에서Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="n"/>
+      <c r="E231" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G231" s="21" t="n"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="n"/>
+      <c r="L231" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="n"/>
-      <c r="B232" s="21" t="n"/>
-      <c r="C232" s="21" t="n"/>
+      <c r="A232" s="21" t="inlineStr">
+        <is>
+          <t>플랫폼 자동화 및 DevOps</t>
+        </is>
+      </c>
+      <c r="B232" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C232" s="21" t="inlineStr">
+        <is>
+          <t>DevOps에서 이미 결합된 개발 및 운영 프로세스에 보안을 통합하여 혁신 프로세스의 위험을 완화합니다.</t>
+        </is>
+      </c>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="n"/>
+      <c r="E232" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G232" s="21" t="n"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="n"/>
+      <c r="L232" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
@@ -12700,7 +12770,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F231" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F233" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ko.xlsx
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 인증을 위해 서비스 주체 대신 관리 ID 사용</t>
+          <t>Azure 서비스에 대한 인증을 위해 서비스 주체 대신 관리 ID를 사용합니다. Entra ID &gt; 로그인 로그 &gt; 서비스 주체 로그인을 통해 기존 서비스 주체를 확인할 수 있습니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">가능한 경우 Azure RBAC를 사용하여 리소스에 대한 데이터 평면 액세스를 관리합니다. 예: Key Vault, Storage 계정 및 데이터베이스 서비스에서 데이터 작업E.G - Data Operations across Key Vault, Storage Account and Database Services. </t>
+          <t>가능한 경우 Azure RBAC를 사용하여 리소스에 대한 데이터 평면 액세스를 관리합니다. 예: Key Vault, Storage 계정 및 데이터베이스 서비스에서 데이터 작업E.G - Data Operations across Key Vault, Storage Account and Database Services.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -3874,7 +3874,7 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6436,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6464,12 +6464,12 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
+          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6486,19 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6514,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>PaaS (영문)</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6536,19 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6569,13 +6569,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,7 +6586,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
@@ -6598,7 +6598,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 Private Link를 사용합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6641,14 +6641,14 @@
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6664,18 +6664,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6686,15 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6710,18 +6714,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6732,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6756,12 +6764,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>PaaS (영문)</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,14 +6786,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6806,13 +6819,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">landing zone 소유자에게 서브넷 생성을 위임합니다. </t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6823,19 +6836,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6856,13 +6864,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6873,19 +6881,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6906,7 +6909,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6921,17 +6924,16 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,7 +6954,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>landing zone 소유자에게 서브넷 생성을 위임합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6969,19 +6971,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,7 +7004,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7019,19 +7021,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,7 +7054,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7067,21 +7069,17 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,12 +7095,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7119,19 +7117,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,12 +7145,12 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7169,14 +7167,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,18 +7195,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
+          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7214,14 +7217,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7242,7 +7250,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7259,19 +7267,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7292,7 +7300,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7309,14 +7317,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7337,13 +7345,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7354,14 +7362,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7382,7 +7390,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,14 +7407,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7427,7 +7440,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7444,14 +7457,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7472,7 +7485,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7489,14 +7502,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7517,13 +7530,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7534,14 +7547,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,23 +7565,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7579,14 +7592,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,17 +7610,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7624,14 +7637,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,23 +7655,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7669,14 +7682,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7697,13 +7710,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7721,7 +7734,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7742,7 +7755,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7759,14 +7772,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7787,13 +7800,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148"